--- a/chiloPro/template-series/structure-books.xlsx
+++ b/chiloPro/template-series/structure-books.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="8175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="8175" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="series-information" sheetId="37" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="102">
   <si>
     <t>cover</t>
     <phoneticPr fontId="3"/>
@@ -915,6 +915,10 @@
       </rPr>
       <t>ol-1</t>
     </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>test</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1785,6 +1789,9 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1890,9 +1897,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -2301,7 +2305,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2408,7 +2412,7 @@
       <c r="C8" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="62" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2420,7 +2424,7 @@
       <c r="C9" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="62"/>
+      <c r="D9" s="63"/>
     </row>
     <row r="10" spans="1:5" ht="13.5" customHeight="1">
       <c r="A10" s="42" t="s">
@@ -2430,7 +2434,7 @@
       <c r="C10" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="62"/>
+      <c r="D10" s="63"/>
     </row>
     <row r="11" spans="1:5" ht="13.5" customHeight="1">
       <c r="A11" s="42" t="s">
@@ -2440,7 +2444,7 @@
       <c r="C11" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="63"/>
+      <c r="D11" s="64"/>
     </row>
     <row r="12" spans="1:5" ht="114">
       <c r="A12" s="42" t="s">
@@ -2498,10 +2502,10 @@
       <c r="C16" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="61" t="s">
+      <c r="D16" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="73" t="s">
+      <c r="E16" s="74" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2513,8 +2517,8 @@
       <c r="C17" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="73"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="74"/>
     </row>
     <row r="18" spans="1:5" ht="13.5" customHeight="1">
       <c r="A18" s="42" t="s">
@@ -2524,8 +2528,8 @@
       <c r="C18" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="73"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="74"/>
     </row>
     <row r="19" spans="1:5" ht="13.5" customHeight="1">
       <c r="A19" s="42" t="s">
@@ -2538,7 +2542,7 @@
       <c r="D19" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="73"/>
+      <c r="E19" s="74"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="39" t="s">
@@ -2548,26 +2552,26 @@
       <c r="D20" s="38"/>
     </row>
     <row r="22" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A22" s="64" t="s">
+      <c r="A22" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="66"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="67"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="67"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="70"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="67"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="69"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="70"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="70"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="72"/>
+      <c r="A25" s="71"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -2618,7 +2622,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="69.95" customHeight="1" thickTop="1">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="61" t="s">
         <v>100</v>
       </c>
       <c r="B2" s="7"/>
@@ -2678,32 +2682,32 @@
     </row>
     <row r="9" spans="1:5" ht="14.25" customHeight="1">
       <c r="A9" s="9"/>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="77"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="9"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="79"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="80"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="B11" s="77"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="79"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="80"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="B12" s="77"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="79"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="80"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="B13" s="80"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="82"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2965,10 +2969,10 @@
     </row>
     <row r="15" spans="1:11" s="58" customFormat="1" ht="36" customHeight="1">
       <c r="D15" s="59"/>
-      <c r="I15" s="92" t="s">
+      <c r="I15" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="J15" s="92"/>
+      <c r="J15" s="93"/>
       <c r="K15" s="60"/>
     </row>
     <row r="16" spans="1:11" s="22" customFormat="1">
@@ -2980,48 +2984,48 @@
       <c r="K17" s="24"/>
     </row>
     <row r="18" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="86"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="88"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="89"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="88"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="89"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="86"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="88"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="89"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="86"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="88"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="89"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="86"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="88"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="89"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="89"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="91"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="92"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -3067,7 +3071,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
@@ -3307,10 +3311,10 @@
     </row>
     <row r="15" spans="1:11" s="58" customFormat="1" ht="36" customHeight="1">
       <c r="D15" s="59"/>
-      <c r="I15" s="92" t="s">
+      <c r="I15" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="J15" s="92"/>
+      <c r="J15" s="93"/>
       <c r="K15" s="60"/>
     </row>
     <row r="16" spans="1:11" s="22" customFormat="1">
@@ -3322,48 +3326,48 @@
       <c r="K17" s="24"/>
     </row>
     <row r="18" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="86"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="88"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="89"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="88"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="89"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="86"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="88"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="89"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="86"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="88"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="89"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="86"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="88"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="89"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="89"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="91"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="92"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -3407,7 +3411,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -3439,7 +3443,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="18" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18" t="s">

--- a/chiloPro/template-series/structure-books.xlsx
+++ b/chiloPro/template-series/structure-books.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="8175" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="8175"/>
   </bookViews>
   <sheets>
     <sheet name="series-information" sheetId="37" r:id="rId1"/>
@@ -155,16 +155,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>初版日</t>
-    <rPh sb="0" eb="2">
-      <t>ショハン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>著作権者</t>
     <rPh sb="0" eb="4">
       <t>チョサクケンシャ</t>
@@ -578,9 +568,6 @@
   </si>
   <si>
     <t>「必要な素材」が保存されているフォルダが、構造ファイル（structure-books.xlsx）と同じ場所に保存されている場合は、記載する必要はありません。</t>
-  </si>
-  <si>
-    <t>epub3パッケージドキュメント（拡張子がopfのドキュメント）のunique-identierに設定されます。</t>
   </si>
   <si>
     <t>input-path</t>
@@ -919,6 +906,23 @@
   </si>
   <si>
     <t>test</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>初版発行日</t>
+    <rPh sb="0" eb="2">
+      <t>ショハン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>epub3パッケージドキュメント（拡張子がopfのドキュメント）のunique-identifierに設定されます。</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2305,7 +2309,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2318,168 +2322,168 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.25">
       <c r="A1" s="42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" s="43">
         <v>1</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.5" hidden="1">
       <c r="A2" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="42.75" hidden="1">
       <c r="A3" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.5">
       <c r="A4" s="42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4" s="41" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.5">
       <c r="A5" s="42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="41" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.5">
       <c r="A6" s="42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B6" s="44"/>
       <c r="C6" s="41" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25">
       <c r="A7" s="42" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B7" s="44"/>
       <c r="C7" s="41" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25">
       <c r="A8" s="42" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="13.5" customHeight="1">
       <c r="A9" s="42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B9" s="43"/>
       <c r="C9" s="41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="63"/>
     </row>
     <row r="10" spans="1:5" ht="13.5" customHeight="1">
       <c r="A10" s="42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10" s="45"/>
       <c r="C10" s="41" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="D10" s="63"/>
     </row>
     <row r="11" spans="1:5" ht="13.5" customHeight="1">
       <c r="A11" s="42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B11" s="43"/>
       <c r="C11" s="41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="64"/>
     </row>
     <row r="12" spans="1:5" ht="114">
       <c r="A12" s="42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B12" s="44"/>
       <c r="C12" s="41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25">
       <c r="A13" s="42" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B13" s="46"/>
       <c r="C13" s="41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.5">
       <c r="A14" s="42" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B14" s="43"/>
       <c r="C14" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.25">
@@ -2488,72 +2492,72 @@
       </c>
       <c r="B15" s="43"/>
       <c r="C15" s="41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.25">
       <c r="A16" s="42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B16" s="43"/>
       <c r="C16" s="41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D16" s="62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16" s="74" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="13.5" customHeight="1">
       <c r="A17" s="42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B17" s="43"/>
       <c r="C17" s="41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D17" s="63"/>
       <c r="E17" s="74"/>
     </row>
     <row r="18" spans="1:5" ht="13.5" customHeight="1">
       <c r="A18" s="42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B18" s="43"/>
       <c r="C18" s="41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D18" s="64"/>
       <c r="E18" s="74"/>
     </row>
     <row r="19" spans="1:5" ht="13.5" customHeight="1">
       <c r="A19" s="42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B19" s="43"/>
       <c r="C19" s="41" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E19" s="74"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C20" s="37"/>
       <c r="D20" s="38"/>
     </row>
     <row r="22" spans="1:5" ht="13.5" customHeight="1">
       <c r="A22" s="65" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B22" s="66"/>
       <c r="C22" s="67"/>
@@ -2609,7 +2613,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>17</v>
@@ -2623,7 +2627,7 @@
     </row>
     <row r="2" spans="1:5" ht="69.95" customHeight="1" thickTop="1">
       <c r="A2" s="61" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="47"/>
@@ -2646,19 +2650,19 @@
     </row>
     <row r="5" spans="1:5" ht="128.25">
       <c r="A5" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="29" t="s">
         <v>39</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.5">
@@ -2667,7 +2671,7 @@
       <c r="C6" s="56"/>
       <c r="D6" s="56"/>
       <c r="E6" s="57" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2683,7 +2687,7 @@
     <row r="9" spans="1:5" ht="14.25" customHeight="1">
       <c r="A9" s="9"/>
       <c r="B9" s="75" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C9" s="76"/>
       <c r="D9" s="77"/>
@@ -2779,12 +2783,12 @@
         <v>8</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -2931,46 +2935,46 @@
       <c r="I13" s="31"/>
       <c r="J13" s="31"/>
       <c r="K13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="54" customFormat="1" ht="108">
       <c r="A14" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="C14" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="D14" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="E14" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="51" t="s">
+      <c r="G14" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="51" t="s">
+      <c r="H14" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="51" t="s">
+      <c r="J14" s="51" t="s">
         <v>47</v>
-      </c>
-      <c r="J14" s="51" t="s">
-        <v>48</v>
       </c>
       <c r="K14" s="53"/>
     </row>
     <row r="15" spans="1:11" s="58" customFormat="1" ht="36" customHeight="1">
       <c r="D15" s="59"/>
       <c r="I15" s="93" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J15" s="93"/>
       <c r="K15" s="60"/>
@@ -2985,7 +2989,7 @@
     </row>
     <row r="18" spans="2:11" ht="14.25" customHeight="1">
       <c r="B18" s="84" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C18" s="85"/>
       <c r="D18" s="85"/>
@@ -3071,7 +3075,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
@@ -3121,7 +3125,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3273,46 +3277,46 @@
       <c r="I13" s="31"/>
       <c r="J13" s="31"/>
       <c r="K13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="54" customFormat="1" ht="108">
       <c r="A14" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="C14" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="D14" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="E14" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="51" t="s">
+      <c r="G14" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="51" t="s">
+      <c r="H14" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="51" t="s">
+      <c r="J14" s="51" t="s">
         <v>47</v>
-      </c>
-      <c r="J14" s="51" t="s">
-        <v>48</v>
       </c>
       <c r="K14" s="53"/>
     </row>
     <row r="15" spans="1:11" s="58" customFormat="1" ht="36" customHeight="1">
       <c r="D15" s="59"/>
       <c r="I15" s="93" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J15" s="93"/>
       <c r="K15" s="60"/>
@@ -3327,7 +3331,7 @@
     </row>
     <row r="18" spans="2:11" ht="14.25" customHeight="1">
       <c r="B18" s="84" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C18" s="85"/>
       <c r="D18" s="85"/>
@@ -3443,7 +3447,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18" t="s">

--- a/chiloPro/template-series/structure-books.xlsx
+++ b/chiloPro/template-series/structure-books.xlsx
@@ -9,14 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="8175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="8175" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="series-information" sheetId="37" r:id="rId1"/>
     <sheet name="book-list" sheetId="28" r:id="rId2"/>
     <sheet name="vol-1" sheetId="33" r:id="rId3"/>
-    <sheet name="書籍構成シート" sheetId="38" r:id="rId4"/>
-    <sheet name="書籍構成シート選択用" sheetId="35" state="hidden" r:id="rId5"/>
+    <sheet name="MetaSheet" sheetId="35" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="102">
   <si>
     <t>cover</t>
     <phoneticPr fontId="3"/>
@@ -2309,15 +2308,17 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:C25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.625" customWidth="1"/>
-    <col min="3" max="3" width="46.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.75" style="36" customWidth="1"/>
-    <col min="5" max="5" width="48.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.25" customWidth="1"/>
+    <col min="4" max="4" width="75.875" style="36" customWidth="1"/>
+    <col min="5" max="5" width="48.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25">
@@ -2578,7 +2579,6 @@
       <c r="C25" s="73"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="D16:D18"/>
@@ -2597,7 +2597,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
@@ -2733,7 +2735,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
@@ -3045,19 +3047,19 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>書籍構成シート選択用!$A$2:$A$4</xm:f>
+            <xm:f>MetaSheet!$A$2:$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>書籍構成シート選択用!$B$2:$B$3</xm:f>
+            <xm:f>MetaSheet!$B$2:$B$3</xm:f>
           </x14:formula1>
           <xm:sqref>D3:D12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>書籍構成シート選択用!$C$2:$C$8</xm:f>
+            <xm:f>MetaSheet!$C$2:$C$8</xm:f>
           </x14:formula1>
           <xm:sqref>J3:J12</xm:sqref>
         </x14:dataValidation>
@@ -3072,351 +3074,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:K24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="21.625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="19" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="22.5" style="12" customWidth="1"/>
-    <col min="5" max="5" width="40.625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="25.5" style="11" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="11" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="11" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="11" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="4"/>
-    <col min="12" max="16384" width="8.875" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" customFormat="1">
-      <c r="A1" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="14"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="14"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-    </row>
-    <row r="13" spans="1:11" s="26" customFormat="1">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="54" customFormat="1" ht="108">
-      <c r="A14" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="J14" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14" s="53"/>
-    </row>
-    <row r="15" spans="1:11" s="58" customFormat="1" ht="36" customHeight="1">
-      <c r="D15" s="59"/>
-      <c r="I15" s="93" t="s">
-        <v>97</v>
-      </c>
-      <c r="J15" s="93"/>
-      <c r="K15" s="60"/>
-    </row>
-    <row r="16" spans="1:11" s="22" customFormat="1">
-      <c r="D16" s="23"/>
-      <c r="K16" s="24"/>
-    </row>
-    <row r="17" spans="2:11" s="22" customFormat="1">
-      <c r="D17" s="23"/>
-      <c r="K17" s="24"/>
-    </row>
-    <row r="18" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B18" s="84" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="86"/>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="87"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="89"/>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="87"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89"/>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="87"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="87"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89"/>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="87"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="89"/>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="90"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="92"/>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="2">
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B18:E24"/>
-  </mergeCells>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>書籍構成シート選択用!$C$2:$C$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>J3:J12</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>書籍構成シート選択用!$B$2:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>D3:D12</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>書籍構成シート選択用!$A$2:$A$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3:A12</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>

--- a/chiloPro/template-series/structure-books.xlsx
+++ b/chiloPro/template-series/structure-books.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="8175" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="8175"/>
   </bookViews>
   <sheets>
     <sheet name="series-information" sheetId="37" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="vol-1" sheetId="33" r:id="rId3"/>
     <sheet name="MetaSheet" sheetId="35" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
   <si>
     <t>cover</t>
     <phoneticPr fontId="3"/>
@@ -349,29 +349,6 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>解説ビデオのYoutubeID
-─────</t>
-    <rPh sb="0" eb="2">
-      <t>カイセツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>CCBYのライセンス
-────────
-CCBYでない場合は記載する必要がありません。</t>
-    <rPh sb="28" eb="30">
-      <t>ナイバアイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -922,6 +899,29 @@
   </si>
   <si>
     <t>epub3パッケージドキュメント（拡張子がopfのドキュメント）のunique-identifierに設定されます。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>解説ビデオのYoutubeID
+─────
+Web CHiLO Book用の解説ビデオをYoutubeから配信する場合、登録したYoutubeビデオのURLに含まれるビデオIDを入力します。
+（例）https://www.youtube.com/watch?v=W6l-nifsu6w　の?v=以降の部分
+注意：入力した場合、ローカル環境からはビデオの再生を確認できません。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CCBYのライセンス
+────────
+CCBYでない場合は記載する必要がありません。</t>
+    <rPh sb="28" eb="30">
+      <t>ナイバアイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒツヨウ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1116,7 +1116,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1397,15 +1397,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1586,7 +1577,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1780,18 +1771,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1894,10 +1873,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2308,9 +2283,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:C25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2323,168 +2296,168 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.25">
       <c r="A1" s="42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B1" s="43">
         <v>1</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.5" hidden="1">
       <c r="A2" s="42" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="41" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="42.75" hidden="1">
       <c r="A3" s="42" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="41" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.5">
       <c r="A4" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" s="41" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.5">
       <c r="A5" s="42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="41" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.5">
       <c r="A6" s="42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B6" s="44"/>
       <c r="C6" s="41" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25">
       <c r="A7" s="42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B7" s="44"/>
       <c r="C7" s="41" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25">
       <c r="A8" s="42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="62" t="s">
-        <v>56</v>
+      <c r="D8" s="59" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="13.5" customHeight="1">
       <c r="A9" s="42" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="43"/>
       <c r="C9" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="63"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="1:5" ht="13.5" customHeight="1">
       <c r="A10" s="42" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B10" s="45"/>
       <c r="C10" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="63"/>
+        <v>98</v>
+      </c>
+      <c r="D10" s="60"/>
     </row>
     <row r="11" spans="1:5" ht="13.5" customHeight="1">
       <c r="A11" s="42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B11" s="43"/>
       <c r="C11" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="64"/>
+      <c r="D11" s="61"/>
     </row>
     <row r="12" spans="1:5" ht="114">
       <c r="A12" s="42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B12" s="44"/>
       <c r="C12" s="41" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25">
       <c r="A13" s="42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B13" s="46"/>
       <c r="C13" s="41" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.5">
       <c r="A14" s="42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B14" s="43"/>
       <c r="C14" s="41" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.25">
@@ -2493,90 +2466,90 @@
       </c>
       <c r="B15" s="43"/>
       <c r="C15" s="41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.25">
       <c r="A16" s="42" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16" s="43"/>
       <c r="C16" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="74" t="s">
-        <v>97</v>
+        <v>74</v>
+      </c>
+      <c r="D16" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="71" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="13.5" customHeight="1">
       <c r="A17" s="42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B17" s="43"/>
       <c r="C17" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="74"/>
+        <v>76</v>
+      </c>
+      <c r="D17" s="60"/>
+      <c r="E17" s="71"/>
     </row>
     <row r="18" spans="1:5" ht="13.5" customHeight="1">
       <c r="A18" s="42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B18" s="43"/>
       <c r="C18" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="64"/>
-      <c r="E18" s="74"/>
+        <v>78</v>
+      </c>
+      <c r="D18" s="61"/>
+      <c r="E18" s="71"/>
     </row>
     <row r="19" spans="1:5" ht="13.5" customHeight="1">
       <c r="A19" s="42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B19" s="43"/>
       <c r="C19" s="41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="74"/>
+        <v>57</v>
+      </c>
+      <c r="E19" s="71"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C20" s="37"/>
       <c r="D20" s="38"/>
     </row>
     <row r="22" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A22" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" s="66"/>
-      <c r="C22" s="67"/>
+      <c r="A22" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="63"/>
+      <c r="C22" s="64"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="68"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="70"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="67"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="68"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="70"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="67"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="71"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2615,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>17</v>
@@ -2628,8 +2601,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="69.95" customHeight="1" thickTop="1">
-      <c r="A2" s="61" t="s">
-        <v>98</v>
+      <c r="A2" s="58" t="s">
+        <v>96</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="47"/>
@@ -2652,13 +2625,13 @@
     </row>
     <row r="5" spans="1:5" ht="128.25">
       <c r="A5" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>50</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>52</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>38</v>
@@ -2673,7 +2646,7 @@
       <c r="C6" s="56"/>
       <c r="D6" s="56"/>
       <c r="E6" s="57" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2688,32 +2661,32 @@
     </row>
     <row r="9" spans="1:5" ht="14.25" customHeight="1">
       <c r="A9" s="9"/>
-      <c r="B9" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="76"/>
-      <c r="D9" s="77"/>
+      <c r="B9" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="73"/>
+      <c r="D9" s="74"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="9"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="80"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="77"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="B11" s="78"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="80"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="77"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="B12" s="78"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="80"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="B13" s="81"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="83"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2733,9 +2706,9 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
@@ -2747,7 +2720,7 @@
     <col min="6" max="6" width="25.5" style="11" customWidth="1"/>
     <col min="7" max="7" width="13.875" style="11" customWidth="1"/>
     <col min="8" max="8" width="12.5" style="11" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="11" customWidth="1"/>
+    <col min="9" max="9" width="37.5" style="11" customWidth="1"/>
     <col min="10" max="10" width="17.875" style="11" customWidth="1"/>
     <col min="11" max="11" width="8.875" style="4"/>
     <col min="12" max="16384" width="8.875" style="11"/>
@@ -2790,7 +2763,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -2940,7 +2913,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="54" customFormat="1" ht="108">
+    <row r="14" spans="1:11" s="54" customFormat="1" ht="148.5">
       <c r="A14" s="51" t="s">
         <v>40</v>
       </c>
@@ -2954,7 +2927,7 @@
         <v>43</v>
       </c>
       <c r="E14" s="51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F14" s="51" t="s">
         <v>44</v>
@@ -2963,81 +2936,72 @@
         <v>45</v>
       </c>
       <c r="H14" s="51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I14" s="51" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="J14" s="51" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="K14" s="53"/>
     </row>
-    <row r="15" spans="1:11" s="58" customFormat="1" ht="36" customHeight="1">
-      <c r="D15" s="59"/>
-      <c r="I15" s="93" t="s">
-        <v>97</v>
-      </c>
-      <c r="J15" s="93"/>
-      <c r="K15" s="60"/>
+    <row r="15" spans="1:11" s="22" customFormat="1">
+      <c r="D15" s="23"/>
+      <c r="K15" s="24"/>
     </row>
     <row r="16" spans="1:11" s="22" customFormat="1">
       <c r="D16" s="23"/>
       <c r="K16" s="24"/>
     </row>
-    <row r="17" spans="2:11" s="22" customFormat="1">
-      <c r="D17" s="23"/>
-      <c r="K17" s="24"/>
-    </row>
-    <row r="18" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B18" s="84" t="s">
-        <v>92</v>
-      </c>
+    <row r="17" spans="2:5" ht="14.25" customHeight="1">
+      <c r="B17" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="83"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="84"/>
       <c r="C18" s="85"/>
       <c r="D18" s="85"/>
       <c r="E18" s="86"/>
     </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="87"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="89"/>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="87"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89"/>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="87"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="87"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89"/>
-    </row>
-    <row r="23" spans="2:11">
+    <row r="19" spans="2:5">
+      <c r="B19" s="84"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="86"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="84"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="86"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="84"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="86"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="84"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="86"/>
+    </row>
+    <row r="23" spans="2:5">
       <c r="B23" s="87"/>
       <c r="C23" s="88"/>
       <c r="D23" s="88"/>
       <c r="E23" s="89"/>
     </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="90"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="92"/>
-    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="2">
-    <mergeCell ref="B18:E24"/>
-    <mergeCell ref="I15:J15"/>
+  <mergeCells count="1">
+    <mergeCell ref="B17:E23"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3108,7 +3072,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18" t="s">

--- a/chiloPro/template-series/structure-books.xlsx
+++ b/chiloPro/template-series/structure-books.xlsx
@@ -902,14 +902,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>解説ビデオのYoutubeID
-─────
-Web CHiLO Book用の解説ビデオをYoutubeから配信する場合、登録したYoutubeビデオのURLに含まれるビデオIDを入力します。
-（例）https://www.youtube.com/watch?v=W6l-nifsu6w　の?v=以降の部分
-注意：入力した場合、ローカル環境からはビデオの再生を確認できません。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>CCBYのライセンス
 ────────
 CCBYでない場合は記載する必要がありません。</t>
@@ -922,6 +914,14 @@
     <rPh sb="35" eb="37">
       <t>ヒツヨウ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>解説ビデオのYoutubeID
+─────
+Web CHiLO Book用の解説ビデオをYoutubeから配信する場合、登録したYoutubeビデオのURLに含まれるビデオIDを入力します。
+（ビデオIDの例）https://www.youtube.com/watch?v=W6l-nifsu6w　の?v=以降の部分
+注意：入力した場合、ローカル環境からはビデオの再生を確認できません。</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2913,7 +2913,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="54" customFormat="1" ht="148.5">
+    <row r="14" spans="1:11" s="54" customFormat="1" ht="162">
       <c r="A14" s="51" t="s">
         <v>40</v>
       </c>
@@ -2939,10 +2939,10 @@
         <v>49</v>
       </c>
       <c r="I14" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" s="51" t="s">
         <v>100</v>
-      </c>
-      <c r="J14" s="51" t="s">
-        <v>101</v>
       </c>
       <c r="K14" s="53"/>
     </row>

--- a/chiloPro/template-series/structure-books.xlsx
+++ b/chiloPro/template-series/structure-books.xlsx
@@ -921,7 +921,7 @@
 ─────
 Web CHiLO Book用の解説ビデオをYoutubeから配信する場合、登録したYoutubeビデオのURLに含まれるビデオIDを入力します。
 （ビデオIDの例）https://www.youtube.com/watch?v=W6l-nifsu6w　の?v=以降の部分
-注意：入力した場合、ローカル環境からはビデオの再生を確認できません。</t>
+注意：IDを入力した場合、ローカル環境からはビデオの再生を確認できません。</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>

--- a/chiloPro/template-series/structure-books.xlsx
+++ b/chiloPro/template-series/structure-books.xlsx
@@ -17,7 +17,7 @@
     <sheet name="vol-1" sheetId="33" r:id="rId3"/>
     <sheet name="MetaSheet" sheetId="35" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -885,19 +885,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>初版発行日</t>
-    <rPh sb="0" eb="2">
-      <t>ショハン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハッコウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>epub3パッケージドキュメント（拡張子がopfのドキュメント）のunique-identifierに設定されます。</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -922,6 +909,22 @@
 Web CHiLO Book用の解説ビデオをYoutubeから配信する場合、登録したYoutubeビデオのURLに含まれるビデオIDを入力します。
 （ビデオIDの例）https://www.youtube.com/watch?v=W6l-nifsu6w　の?v=以降の部分
 注意：IDを入力した場合、ローカル環境からはビデオの再生を確認できません。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>（必須）初版発行日</t>
+    <rPh sb="1" eb="3">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショハン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ビ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2355,7 +2358,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.5">
@@ -2410,7 +2413,7 @@
       </c>
       <c r="B10" s="45"/>
       <c r="C10" s="41" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D10" s="60"/>
     </row>
@@ -2552,6 +2555,7 @@
       <c r="C25" s="70"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="D16:D18"/>
@@ -2570,9 +2574,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:D13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
@@ -2689,6 +2691,7 @@
       <c r="D13" s="80"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="B9:D13"/>
   </mergeCells>
@@ -2939,10 +2942,10 @@
         <v>49</v>
       </c>
       <c r="I14" s="51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J14" s="51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K14" s="53"/>
     </row>

--- a/chiloPro/template-series/structure-books.xlsx
+++ b/chiloPro/template-series/structure-books.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="105">
   <si>
     <t>cover</t>
     <phoneticPr fontId="3"/>
@@ -925,6 +925,20 @@
     <rPh sb="8" eb="9">
       <t>ビ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>deploy-url</t>
+  </si>
+  <si>
+    <t>Web CHiLO BookのOGPの指定するURL</t>
+    <rPh sb="19" eb="21">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Web CHiLO BookをアップロードするURLの、/vol-x-html/より前の部分を記入します。</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1580,7 +1594,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1776,6 +1790,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1960,13 +1977,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>248445</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>70334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>184147</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>138507</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2284,7 +2301,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2297,7 +2314,7 @@
     <col min="5" max="5" width="48.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25">
+    <row r="1" spans="1:4" ht="14.25">
       <c r="A1" s="42" t="s">
         <v>81</v>
       </c>
@@ -2311,7 +2328,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.5" hidden="1">
+    <row r="2" spans="1:4" ht="28.5" hidden="1">
       <c r="A2" s="42" t="s">
         <v>60</v>
       </c>
@@ -2323,7 +2340,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="42.75" hidden="1">
+    <row r="3" spans="1:4" ht="42.75" hidden="1">
       <c r="A3" s="42" t="s">
         <v>61</v>
       </c>
@@ -2335,7 +2352,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.5">
+    <row r="4" spans="1:4" ht="28.5">
       <c r="A4" s="42" t="s">
         <v>62</v>
       </c>
@@ -2349,7 +2366,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.5">
+    <row r="5" spans="1:4" ht="28.5">
       <c r="A5" s="42" t="s">
         <v>64</v>
       </c>
@@ -2361,7 +2378,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.5">
+    <row r="6" spans="1:4" ht="28.5">
       <c r="A6" s="42" t="s">
         <v>65</v>
       </c>
@@ -2373,7 +2390,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25">
+    <row r="7" spans="1:4" ht="14.25">
       <c r="A7" s="42" t="s">
         <v>66</v>
       </c>
@@ -2385,7 +2402,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.25">
+    <row r="8" spans="1:4" ht="14.25">
       <c r="A8" s="42" t="s">
         <v>67</v>
       </c>
@@ -2393,11 +2410,11 @@
       <c r="C8" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="60" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.5" customHeight="1">
+    <row r="9" spans="1:4" ht="13.5" customHeight="1">
       <c r="A9" s="42" t="s">
         <v>68</v>
       </c>
@@ -2405,9 +2422,9 @@
       <c r="C9" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="60"/>
-    </row>
-    <row r="10" spans="1:5" ht="13.5" customHeight="1">
+      <c r="D9" s="61"/>
+    </row>
+    <row r="10" spans="1:4" ht="13.5" customHeight="1">
       <c r="A10" s="42" t="s">
         <v>69</v>
       </c>
@@ -2415,9 +2432,9 @@
       <c r="C10" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="60"/>
-    </row>
-    <row r="11" spans="1:5" ht="13.5" customHeight="1">
+      <c r="D10" s="61"/>
+    </row>
+    <row r="11" spans="1:4" ht="13.5" customHeight="1">
       <c r="A11" s="42" t="s">
         <v>70</v>
       </c>
@@ -2425,9 +2442,9 @@
       <c r="C11" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="61"/>
-    </row>
-    <row r="12" spans="1:5" ht="114">
+      <c r="D11" s="62"/>
+    </row>
+    <row r="12" spans="1:4" ht="114">
       <c r="A12" s="42" t="s">
         <v>87</v>
       </c>
@@ -2439,7 +2456,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.25">
+    <row r="13" spans="1:4" ht="14.25">
       <c r="A13" s="42" t="s">
         <v>71</v>
       </c>
@@ -2451,7 +2468,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.5">
+    <row r="14" spans="1:4" ht="28.5">
       <c r="A14" s="42" t="s">
         <v>72</v>
       </c>
@@ -2463,7 +2480,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.25">
+    <row r="15" spans="1:4" ht="14.25">
       <c r="A15" s="42" t="s">
         <v>0</v>
       </c>
@@ -2475,92 +2492,104 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.25">
+    <row r="16" spans="1:4" ht="14.25">
       <c r="A16" s="42" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="B16" s="43"/>
       <c r="C16" s="41" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="D16" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="71" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="13.5" customHeight="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.25">
       <c r="A17" s="42" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B17" s="43"/>
       <c r="C17" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="71"/>
+        <v>74</v>
+      </c>
+      <c r="D17" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="72" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="13.5" customHeight="1">
       <c r="A18" s="42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B18" s="43"/>
       <c r="C18" s="41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D18" s="61"/>
-      <c r="E18" s="71"/>
+      <c r="E18" s="72"/>
     </row>
     <row r="19" spans="1:5" ht="13.5" customHeight="1">
       <c r="A19" s="42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B19" s="43"/>
       <c r="C19" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="62"/>
+      <c r="E19" s="72"/>
+    </row>
+    <row r="20" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A20" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="43"/>
+      <c r="C20" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D20" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="71"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="39" t="s">
+      <c r="E20" s="72"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
-    </row>
-    <row r="22" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A22" s="62" t="s">
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
+    </row>
+    <row r="23" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A23" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="63"/>
-      <c r="C22" s="64"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="65"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="67"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="65"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="67"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="68"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="68"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="70"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="68"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="69"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="71"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="A22:C25"/>
-    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A23:C26"/>
+    <mergeCell ref="E17:E20"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2663,32 +2692,32 @@
     </row>
     <row r="9" spans="1:5" ht="14.25" customHeight="1">
       <c r="A9" s="9"/>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="75"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="9"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="77"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="78"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="B11" s="75"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="77"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="78"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="B12" s="75"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="77"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="78"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="B13" s="78"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="80"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="81"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -2958,48 +2987,48 @@
       <c r="K16" s="24"/>
     </row>
     <row r="17" spans="2:5" ht="14.25" customHeight="1">
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="83"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="84"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="84"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="86"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="87"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="84"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="86"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="87"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="84"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="86"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="87"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="84"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="86"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="87"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="84"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="86"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="87"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="87"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="89"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="90"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/chiloPro/template-series/structure-books.xlsx
+++ b/chiloPro/template-series/structure-books.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="108">
   <si>
     <t>cover</t>
     <phoneticPr fontId="3"/>
@@ -350,10 +350,6 @@
     <rPh sb="11" eb="12">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>cover</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -941,6 +937,30 @@
     <t>Web CHiLO BookをアップロードするURLの、/vol-x-html/より前の部分を記入します。</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>riviced</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>改定日</t>
+    <rPh sb="0" eb="3">
+      <t>カイテイビ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>identifier（必須）</t>
+    <rPh sb="11" eb="13">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>（必須）CHiLO BookのユニークID。
+──────────────────
+epub3パッケージドキュメント（拡張子がopfのドキュメント）のunique-identierに設定されます。</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -949,7 +969,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1034,21 +1054,6 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1594,7 +1599,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1610,12 +1615,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1688,10 +1687,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1704,26 +1699,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1735,32 +1720,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1785,7 +1766,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1833,31 +1814,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1894,6 +1875,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1977,13 +1976,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>248445</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>70334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>184147</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>138507</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2301,295 +2300,305 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.625" customWidth="1"/>
     <col min="3" max="3" width="46.25" customWidth="1"/>
-    <col min="4" max="4" width="75.875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="75.875" style="30" customWidth="1"/>
     <col min="5" max="5" width="48.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="37">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="43">
-        <v>1</v>
-      </c>
-      <c r="C1" s="41" t="s">
+      <c r="D1" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="38"/>
+      <c r="C7" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="54"/>
+    </row>
+    <row r="10" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="88"/>
+      <c r="C10" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="54"/>
+    </row>
+    <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="39"/>
+      <c r="C11" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="54"/>
+    </row>
+    <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="55"/>
+    </row>
+    <row r="13" spans="1:4" ht="114" x14ac:dyDescent="0.15">
+      <c r="A13" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="40"/>
+      <c r="C14" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="28.5" hidden="1">
-      <c r="A2" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="42.75" hidden="1">
-      <c r="A3" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.5">
-      <c r="A4" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.5">
-      <c r="A5" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="28.5">
-      <c r="A6" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="14.25">
-      <c r="A7" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="14.25">
-      <c r="A8" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="60" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="34" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A9" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="61"/>
-    </row>
-    <row r="10" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A10" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="41" t="s">
+    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="61"/>
-    </row>
-    <row r="11" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A11" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="62"/>
-    </row>
-    <row r="12" spans="1:4" ht="114">
-      <c r="A12" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="40" t="s">
+      <c r="B17" s="37"/>
+      <c r="C17" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="37"/>
+      <c r="C18" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="65" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.25">
-      <c r="A13" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="28.5">
-      <c r="A14" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="14.25">
-      <c r="A15" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="40" t="s">
+    <row r="19" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="37"/>
+      <c r="C19" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="54"/>
+      <c r="E19" s="65"/>
+    </row>
+    <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="37"/>
+      <c r="C20" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="55"/>
+      <c r="E20" s="65"/>
+    </row>
+    <row r="21" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="37"/>
+      <c r="C21" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="65"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="33" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="14.25">
-      <c r="A16" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.25">
-      <c r="A17" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="72" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A18" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="72"/>
-    </row>
-    <row r="19" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A19" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="72"/>
-    </row>
-    <row r="20" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A20" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="72"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="38"/>
-    </row>
-    <row r="23" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A23" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="66"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="68"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="66"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="68"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="69"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="71"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+    </row>
+    <row r="24" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="57"/>
+      <c r="C24" s="58"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="59"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="61"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="59"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="62"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="64"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="A23:C26"/>
-    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="A24:C27"/>
+    <mergeCell ref="E18:E21"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2601,128 +2610,137 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="37.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="47" style="2" customWidth="1"/>
-    <col min="4" max="5" width="37.875" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.875" style="2"/>
+    <col min="1" max="1" width="43.25" style="48" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="37.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="47" style="2" customWidth="1"/>
+    <col min="5" max="6" width="37.875" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="C1" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="87" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="69.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="84"/>
+      <c r="B2" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="84"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="85"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="128.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="69.95" customHeight="1" thickTop="1">
-      <c r="A2" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:5" ht="69.95" customHeight="1">
-      <c r="A3" s="27"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="1:5" ht="69.95" customHeight="1">
-      <c r="A4" s="27"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" ht="128.25">
-      <c r="A5" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="29" t="s">
+      <c r="C5" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="F5" s="26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.5">
-      <c r="A6" s="56"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="57" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="D7" s="10"/>
-      <c r="E7" s="55"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="75"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="9"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="78"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="B11" s="76"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="B12" s="76"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="78"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="B13" s="79"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="81"/>
+    <row r="6" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E7" s="8"/>
+      <c r="F7" s="48"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="7"/>
+      <c r="C9" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="67"/>
+      <c r="E9" s="68"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B10" s="7"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="71"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C11" s="69"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="71"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C12" s="69"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="71"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C13" s="72"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="74"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="B9:D13"/>
+    <mergeCell ref="C9:E13"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2738,302 +2756,287 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="19" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="22.5" style="12" customWidth="1"/>
-    <col min="5" max="5" width="40.625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="25.5" style="11" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="11" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="37.5" style="11" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="21.625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="19" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="10" customWidth="1"/>
+    <col min="5" max="5" width="40.625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="9" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="9" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="37.5" style="9" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="9" customWidth="1"/>
     <col min="11" max="11" width="8.875" style="4"/>
-    <col min="12" max="16384" width="8.875" style="11"/>
+    <col min="12" max="16384" width="8.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="13" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="14"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="14"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-    </row>
-    <row r="13" spans="1:11" s="26" customFormat="1">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="1" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="54" customFormat="1" ht="162">
-      <c r="A14" s="51" t="s">
+    <row r="13" spans="1:11" s="47" customFormat="1" ht="162" x14ac:dyDescent="0.15">
+      <c r="A13" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B13" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C13" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="D13" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="51" t="s">
+      <c r="E13" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="K13" s="46"/>
+    </row>
+    <row r="14" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="21"/>
+      <c r="K14" s="22"/>
+    </row>
+    <row r="15" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D15" s="21"/>
+      <c r="K15" s="22"/>
+    </row>
+    <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="J14" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="K14" s="53"/>
-    </row>
-    <row r="15" spans="1:11" s="22" customFormat="1">
-      <c r="D15" s="23"/>
-      <c r="K15" s="24"/>
-    </row>
-    <row r="16" spans="1:11" s="22" customFormat="1">
-      <c r="D16" s="23"/>
-      <c r="K16" s="24"/>
-    </row>
-    <row r="17" spans="2:5" ht="14.25" customHeight="1">
-      <c r="B17" s="82" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="84"/>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="85"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="87"/>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="85"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="87"/>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="85"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="87"/>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="85"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="87"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="85"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="87"/>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="88"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="90"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="77"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="78"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="80"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="78"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="80"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="78"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="80"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B20" s="78"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="80"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B21" s="78"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="80"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B22" s="81"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="83"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="1">
-    <mergeCell ref="B17:E23"/>
+    <mergeCell ref="B16:E22"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3045,19 +3048,19 @@
           <x14:formula1>
             <xm:f>MetaSheet!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A12</xm:sqref>
+          <xm:sqref>A2:A11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>MetaSheet!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D12</xm:sqref>
+          <xm:sqref>D2:D11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>MetaSheet!$C$2:$C$8</xm:f>
           </x14:formula1>
-          <xm:sqref>J3:J12</xm:sqref>
+          <xm:sqref>J2:J11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3075,74 +3078,74 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" thickBot="1">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25" thickTop="1">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="20" t="b">
+      <c r="B2" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>

--- a/chiloPro/template-series/structure-books.xlsx
+++ b/chiloPro/template-series/structure-books.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHiLO-Producer\chiloPro\template-series\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHiLO-Producer\chiloPro\sample-series\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,8 @@
     <sheet name="series-information" sheetId="37" r:id="rId1"/>
     <sheet name="book-list" sheetId="28" r:id="rId2"/>
     <sheet name="vol-1" sheetId="33" r:id="rId3"/>
-    <sheet name="MetaSheet" sheetId="35" state="hidden" r:id="rId4"/>
+    <sheet name="書籍構成シート" sheetId="38" r:id="rId4"/>
+    <sheet name="書籍構成シート選択用" sheetId="35" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="108">
   <si>
     <t>cover</t>
     <phoneticPr fontId="3"/>
@@ -129,13 +130,6 @@
     <t>出力されるCHiLO Bookのファイル名の接頭辞</t>
     <rPh sb="22" eb="25">
       <t>セットウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>（必須）CHiLO BookのユニークID。</t>
-    <rPh sb="1" eb="3">
-      <t>ヒッス</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -353,6 +347,21 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>CCBYのライセンス
+────────
+CCBYでない場合は記載する必要がありません。</t>
+    <rPh sb="28" eb="30">
+      <t>ナイバアイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>book-title</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -551,14 +560,6 @@
   </si>
   <si>
     <t>output-name</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>000</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>identifier</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -860,8 +861,86 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>vol-1</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>解説ビデオのYoutubeID
+─────
+Web CHiLO Book用の解説ビデオをYoutubeからビデオを配信する場合、登録したYoutubeビデオのURLに含まれるビデオIDを入力します。
+（例）https://www.youtube.com/watch?v=W6l-nifsu6w　の?v=以降の部分
+注意：入力した場合、ローカル環境からはビデオの再生を確認できません。</t>
+    <rPh sb="64" eb="66">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>解説ビデオのYoutubeID
+─────
+Web CHiLO Book用の解説ビデオをYoutubeから配信する場合、登録したYoutubeビデオのURLに含まれるビデオIDを入力します。
+（例）https://www.youtube.com/watch?v=W6l-nifsu6w　の?v=以降の部分
+注意：入力した場合、ローカル環境からはビデオの再生を確認できません。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>（必須）初版発行日</t>
+    <rPh sb="4" eb="6">
+      <t>ショハン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ハッコウビ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>deploy-url</t>
+  </si>
+  <si>
+    <t>Web CHiLO BookのOGPに指定するURL</t>
+    <rPh sb="19" eb="21">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Web CHiLO BookをアップロードするURLの、/vol-x-html/より前の部分を記入します。</t>
+    <rPh sb="42" eb="43">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <r>
-      <t>v</t>
+      <t>c</t>
     </r>
     <r>
       <rPr>
@@ -872,69 +951,20 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ol-1</t>
+      <t>over</t>
     </r>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>test</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>epub3パッケージドキュメント（拡張子がopfのドキュメント）のunique-identifierに設定されます。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>CCBYのライセンス
-────────
-CCBYでない場合は記載する必要がありません。</t>
-    <rPh sb="28" eb="30">
-      <t>ナイバアイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>解説ビデオのYoutubeID
-─────
-Web CHiLO Book用の解説ビデオをYoutubeから配信する場合、登録したYoutubeビデオのURLに含まれるビデオIDを入力します。
-（ビデオIDの例）https://www.youtube.com/watch?v=W6l-nifsu6w　の?v=以降の部分
-注意：IDを入力した場合、ローカル環境からはビデオの再生を確認できません。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>（必須）初版発行日</t>
-    <rPh sb="1" eb="3">
-      <t>ヒッス</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショハン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ハッコウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>deploy-url</t>
-  </si>
-  <si>
-    <t>Web CHiLO BookのOGPの指定するURL</t>
-    <rPh sb="19" eb="21">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Web CHiLO BookをアップロードするURLの、/vol-x-html/より前の部分を記入します。</t>
+    <t>表紙画像
+―――――――――――――
+表紙画像のファイル名（表紙画像が無い場合は空白にしてください）</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガゾウ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -949,14 +979,11 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>identifier（必須）</t>
-    <rPh sb="11" eb="13">
-      <t>ヒッス</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>（必須）CHiLO BookのユニークID。
+    <t>identifier</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CHiLO BookのユニークID。
 ──────────────────
 epub3パッケージドキュメント（拡張子がopfのドキュメント）のunique-identierに設定されます。</t>
     <phoneticPr fontId="3"/>
@@ -1212,17 +1239,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color auto="1"/>
       </left>
@@ -1419,6 +1435,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1599,7 +1624,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1616,10 +1641,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1636,9 +1658,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="37" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1659,9 +1678,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1684,10 +1700,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1699,6 +1712,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1711,36 +1727,28 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1748,10 +1756,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1769,19 +1777,83 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="37" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="37" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1793,12 +1865,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1808,11 +1880,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1823,12 +1895,12 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1838,8 +1910,9 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1853,14 +1926,14 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1871,28 +1944,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1976,13 +2027,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>248445</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>70334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>184147</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>138507</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2300,7 +2351,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2308,297 +2359,284 @@
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.625" customWidth="1"/>
-    <col min="3" max="3" width="46.25" customWidth="1"/>
-    <col min="4" max="4" width="75.875" style="30" customWidth="1"/>
-    <col min="5" max="5" width="48.625" customWidth="1"/>
+    <col min="3" max="3" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.75" style="27" customWidth="1"/>
+    <col min="5" max="5" width="48.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="34">
+        <v>1</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="46"/>
+      <c r="C4" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="C7" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="65"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="61"/>
+      <c r="C9" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="65"/>
+    </row>
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="65"/>
+    </row>
+    <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="66"/>
+    </row>
+    <row r="12" spans="1:5" ht="114" x14ac:dyDescent="0.15">
+      <c r="A12" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="35"/>
+      <c r="C12" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="37">
-        <v>1</v>
-      </c>
-      <c r="C1" s="35" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="47"/>
+      <c r="C14" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="34" t="s">
+    </row>
+    <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="47"/>
+      <c r="C16" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="76" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="54"/>
-    </row>
-    <row r="10" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="54"/>
-    </row>
-    <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="54"/>
-    </row>
-    <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="55"/>
-    </row>
-    <row r="13" spans="1:4" ht="114" x14ac:dyDescent="0.15">
-      <c r="A13" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="36" t="s">
+    <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="34" t="s">
+      <c r="B17" s="34"/>
+      <c r="C17" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="76"/>
+    </row>
+    <row r="18" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="46"/>
+      <c r="C18" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="65"/>
+      <c r="E18" s="76"/>
+    </row>
+    <row r="19" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="34"/>
+      <c r="C19" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="66"/>
+      <c r="E19" s="76"/>
+    </row>
+    <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="76"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="30" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="65" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="65"/>
-    </row>
-    <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="65"/>
-    </row>
-    <row r="21" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="65"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
-    </row>
-    <row r="24" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="58"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+    </row>
+    <row r="23" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="70"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="72"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="59"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="61"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="72"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="59"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="61"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="62"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="64"/>
+      <c r="A26" s="73"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="75"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="A24:C27"/>
-    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A23:C26"/>
+    <mergeCell ref="E16:E20"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2610,137 +2648,158 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="43.25" style="48" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="37.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="47" style="2" customWidth="1"/>
-    <col min="5" max="6" width="37.875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="2"/>
+    <col min="1" max="1" width="14.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="37.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="47" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.25" style="2" customWidth="1"/>
+    <col min="6" max="7" width="37.875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="86" t="s">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="86" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="87" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="87" t="s">
+      <c r="F1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="G1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="69.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="85"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" ht="128.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="26" t="s">
+    <row r="2" spans="1:7" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="57"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+    </row>
+    <row r="3" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+    </row>
+    <row r="4" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+    </row>
+    <row r="5" spans="1:7" ht="128.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="26" t="s">
+      <c r="F5" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="50" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E7" s="8"/>
-      <c r="F7" s="48"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="7"/>
-      <c r="C9" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="68"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B10" s="7"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="71"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C11" s="69"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="71"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C12" s="69"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="71"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C13" s="72"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="74"/>
+    </row>
+    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F7" s="7"/>
+      <c r="G7" s="43"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="78"/>
+      <c r="D9" s="79"/>
+      <c r="F9" s="54"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="82"/>
+      <c r="F10" s="54"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="80"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="82"/>
+      <c r="F11" s="54"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="80"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="82"/>
+      <c r="F12" s="54"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="83"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="85"/>
+      <c r="F13" s="54"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F14" s="55"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="1">
-    <mergeCell ref="C9:E13"/>
+    <mergeCell ref="B9:D13"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2756,311 +2815,384 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="19" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="22.5" style="10" customWidth="1"/>
-    <col min="5" max="5" width="40.625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="25.5" style="9" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="9" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="37.5" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="21.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="9" customWidth="1"/>
+    <col min="5" max="5" width="40.625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="30.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="8" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="37.5" style="8" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="8" customWidth="1"/>
     <col min="11" max="11" width="8.875" style="4"/>
-    <col min="12" max="16384" width="8.875" style="9"/>
+    <col min="12" max="16384" width="8.875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="12"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="47" customFormat="1" ht="162" x14ac:dyDescent="0.15">
-      <c r="A13" s="44" t="s">
+    <row r="18" spans="1:11" s="42" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="C18" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="D18" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="E18" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="44" t="s">
+      <c r="G18" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="44" t="s">
+      <c r="H18" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="J18" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="J13" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="K13" s="46"/>
-    </row>
-    <row r="14" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D14" s="21"/>
-      <c r="K14" s="22"/>
-    </row>
-    <row r="15" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D15" s="21"/>
-      <c r="K15" s="22"/>
-    </row>
-    <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="77"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" s="78"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="80"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B18" s="78"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="80"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B19" s="78"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="80"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B20" s="78"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="80"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B21" s="78"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="80"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B22" s="81"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="83"/>
+      <c r="K18" s="41"/>
+    </row>
+    <row r="19" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D19" s="18"/>
+      <c r="K19" s="19"/>
+    </row>
+    <row r="20" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D20" s="18"/>
+      <c r="K20" s="19"/>
+    </row>
+    <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="88"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B22" s="89"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="91"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B23" s="89"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="91"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B24" s="89"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="91"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B25" s="89"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="91"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B26" s="89"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="91"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B27" s="92"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="94"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="1">
-    <mergeCell ref="B16:E22"/>
+    <mergeCell ref="B21:E27"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>MetaSheet!$A$2:$A$4</xm:f>
+            <xm:f>書籍構成シート選択用!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A11</xm:sqref>
+          <xm:sqref>A2:A16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>MetaSheet!$B$2:$B$3</xm:f>
+            <xm:f>書籍構成シート選択用!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D11</xm:sqref>
+          <xm:sqref>D2:D16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>MetaSheet!$C$2:$C$8</xm:f>
+            <xm:f>書籍構成シート選択用!$C$2:$C$8</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J11</xm:sqref>
+          <xm:sqref>J2:J16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3073,10 +3205,327 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="9" customWidth="1"/>
+    <col min="5" max="5" width="40.625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="8" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="37.5" style="8" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="4"/>
+    <col min="12" max="16384" width="8.875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="23"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="42" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="J13" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="41"/>
+    </row>
+    <row r="14" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="18"/>
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D15" s="18"/>
+      <c r="K15" s="19"/>
+    </row>
+    <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="88"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="89"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="91"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="89"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="91"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="89"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="91"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B20" s="89"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="91"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B21" s="89"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="91"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B22" s="92"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="94"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="B16:E22"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>書籍構成シート選択用!$C$2:$C$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>J2:J11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>書籍構成シート選択用!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>書籍構成シート選択用!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A11</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3084,72 +3533,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16" t="s">
+      <c r="A3" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/chiloPro/template-series/structure-books.xlsx
+++ b/chiloPro/template-series/structure-books.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHiLO-Producer\chiloPro\sample-series\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHiLO-Producer\chiloPro\template-series\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -968,10 +968,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>riviced</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>改定日</t>
     <rPh sb="0" eb="3">
       <t>カイテイビ</t>
@@ -986,6 +982,10 @@
     <t>CHiLO BookのユニークID。
 ──────────────────
 epub3パッケージドキュメント（拡張子がopfのドキュメント）のunique-identierに設定されます。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>rivised</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2472,11 +2472,11 @@
     </row>
     <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="33" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D10" s="65"/>
     </row>
@@ -2677,7 +2677,7 @@
         <v>102</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>18</v>
@@ -2729,7 +2729,7 @@
         <v>103</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>37</v>

--- a/chiloPro/template-series/structure-books.xlsx
+++ b/chiloPro/template-series/structure-books.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="8175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="8175" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="series-information" sheetId="37" r:id="rId1"/>
@@ -979,13 +979,13 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>rivised</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>CHiLO BookのユニークID。
 ──────────────────
-epub3パッケージドキュメント（拡張子がopfのドキュメント）のunique-identierに設定されます。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>rivised</t>
+epub3パッケージドキュメント（拡張子がopfのドキュメント）のidentierに設定されます。</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2353,7 +2353,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2472,7 +2472,7 @@
     </row>
     <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="32" t="s">
@@ -2650,7 +2650,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2729,7 +2729,7 @@
         <v>103</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>37</v>

--- a/chiloPro/template-series/structure-books.xlsx
+++ b/chiloPro/template-series/structure-books.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="8175" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="8175"/>
   </bookViews>
   <sheets>
     <sheet name="series-information" sheetId="37" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="書籍構成シート" sheetId="38" r:id="rId4"/>
     <sheet name="書籍構成シート選択用" sheetId="35" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="99">
   <si>
     <t>cover</t>
     <phoneticPr fontId="3"/>
@@ -127,13 +127,6 @@
     <t>CC by-NC-ND</t>
   </si>
   <si>
-    <t>出力されるCHiLO Bookのファイル名の接頭辞</t>
-    <rPh sb="22" eb="25">
-      <t>セットウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>（必須）書籍の言語</t>
     <rPh sb="1" eb="3">
       <t>ヒッス</t>
@@ -168,20 +161,6 @@
     <t>シリーズの紹介文</t>
     <rPh sb="5" eb="8">
       <t>ショウカイブン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>common/やvol-n/ などの「必要な素材」の保存場所</t>
-    <rPh sb="28" eb="30">
-      <t>バショ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>OutputBase/以下のCHiLO Bookの出力フォルダ</t>
-    <rPh sb="11" eb="13">
-      <t>イカ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -417,38 +396,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>特に記載する必要はありません。
-ここにフォルダ名を記載すると、OutputBase/に、記載したフォルダ名でフォルダが作成され、そこにCHiLO Bookが出力されます。</t>
-    <rPh sb="0" eb="1">
-      <t>トク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>ja, enなど、言語をRFC 5646形式で記載します。
 入力した言語は、epub3 パッケージドキュメントのdc:language に設定されます。</t>
     <rPh sb="9" eb="11">
@@ -546,21 +493,6 @@
   </si>
   <si>
     <t>ここで記載したバージョン情報は出力されるCHiLO Bookでは利用されません。</t>
-  </si>
-  <si>
-    <t>「必要な素材」が保存されているフォルダが、構造ファイル（structure-books.xlsx）と同じ場所に保存されている場合は、記載する必要はありません。</t>
-  </si>
-  <si>
-    <t>input-path</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>output-path</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>output-name</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>language</t>
@@ -780,44 +712,6 @@
 ・ 変更してはいけないセルに保護がかかっています。シートの保護解除のパスワードはつけていません。
 </t>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>出力されるCHiLO Bookのファイル名の接頭に記載した文字が追加されます。
-空白にした場合接頭辞は「null」という文字が追加されます。</t>
-    <rPh sb="0" eb="2">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>セットウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="47" eb="50">
-      <t>セットウジ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>CHiLO Bookの書籍タイトルは
@@ -2027,13 +1921,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>248445</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>70334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>184147</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>138507</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2351,9 +2245,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2366,277 +2262,241 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B1" s="34">
         <v>1</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D1" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="33" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="31" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="65"/>
+    </row>
+    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="33" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+      <c r="D6" s="65"/>
+    </row>
+    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="34"/>
+        <v>97</v>
+      </c>
+      <c r="B7" s="36"/>
       <c r="C7" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="64" t="s">
-        <v>53</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="D7" s="65"/>
     </row>
     <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="33" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B8" s="34"/>
       <c r="C8" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="65"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+      <c r="D8" s="66"/>
+    </row>
+    <row r="9" spans="1:5" ht="114" x14ac:dyDescent="0.15">
       <c r="A9" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="61"/>
+        <v>76</v>
+      </c>
+      <c r="B9" s="35"/>
       <c r="C9" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="65"/>
-    </row>
-    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="36"/>
+        <v>60</v>
+      </c>
+      <c r="B10" s="37"/>
       <c r="C10" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="65"/>
-    </row>
-    <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A11" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="34"/>
+        <v>61</v>
+      </c>
+      <c r="B11" s="47"/>
       <c r="C11" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="66"/>
-    </row>
-    <row r="12" spans="1:5" ht="114" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="35"/>
+        <v>0</v>
+      </c>
+      <c r="B12" s="34"/>
       <c r="C12" s="32" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="47"/>
+      <c r="C13" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="76" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="34"/>
+      <c r="C14" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="76"/>
+    </row>
+    <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="46"/>
+      <c r="C15" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="65"/>
+      <c r="E15" s="76"/>
+    </row>
+    <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="34"/>
+      <c r="C16" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="66"/>
+      <c r="E16" s="76"/>
+    </row>
+    <row r="17" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="33" t="s">
         <v>68</v>
-      </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="76" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="33" t="s">
-        <v>70</v>
       </c>
       <c r="B17" s="34"/>
       <c r="C17" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="64" t="s">
-        <v>55</v>
+        <v>69</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>52</v>
       </c>
       <c r="E17" s="76"/>
     </row>
-    <row r="18" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="76"/>
-    </row>
-    <row r="19" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="33" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="66"/>
-      <c r="E19" s="76"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
     </row>
     <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="76"/>
+      <c r="A20" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="68"/>
+      <c r="C20" s="69"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
-    </row>
-    <row r="23" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="70"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="72"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="70"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="72"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="73"/>
-      <c r="B26" s="74"/>
-      <c r="C26" s="75"/>
+      <c r="A21" s="70"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="72"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="70"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="72"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="73"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="75"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="A23:C26"/>
-    <mergeCell ref="E16:E20"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="A20:C23"/>
+    <mergeCell ref="E13:E17"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2650,7 +2510,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2668,16 +2528,16 @@
         <v>10</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C1" s="52" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>18</v>
@@ -2688,7 +2548,7 @@
     </row>
     <row r="2" spans="1:7" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="56" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B2" s="57"/>
       <c r="C2" s="53"/>
@@ -2717,25 +2577,25 @@
     </row>
     <row r="5" spans="1:7" ht="128.25" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
@@ -2745,7 +2605,7 @@
       <c r="D6" s="44"/>
       <c r="F6" s="44"/>
       <c r="G6" s="45" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -2762,7 +2622,7 @@
     <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="77" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C9" s="78"/>
       <c r="D9" s="79"/>
@@ -2867,7 +2727,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -3077,39 +2937,39 @@
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
       <c r="K17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="42" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A18" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="E18" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="G18" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="H18" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18" s="39" t="s">
         <v>42</v>
-      </c>
-      <c r="E18" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="I18" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="J18" s="39" t="s">
-        <v>45</v>
       </c>
       <c r="K18" s="41"/>
     </row>
@@ -3123,7 +2983,7 @@
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="86" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C21" s="87"/>
       <c r="D21" s="87"/>
@@ -3258,7 +3118,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -3395,39 +3255,39 @@
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
       <c r="K12" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="42" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A13" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="E13" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="G13" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="H13" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" s="39" t="s">
         <v>42</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="J13" s="39" t="s">
-        <v>45</v>
       </c>
       <c r="K13" s="41"/>
     </row>
@@ -3441,7 +3301,7 @@
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="86" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C16" s="87"/>
       <c r="D16" s="87"/>
@@ -3548,7 +3408,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>9</v>
@@ -3556,7 +3416,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14" t="s">

--- a/chiloPro/template-series/structure-books.xlsx
+++ b/chiloPro/template-series/structure-books.xlsx
@@ -873,13 +873,13 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>rivised</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>CHiLO BookのユニークID。
 ──────────────────
 epub3パッケージドキュメント（拡張子がopfのドキュメント）のidentierに設定されます。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>revised</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2247,9 +2247,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2332,7 +2330,7 @@
     </row>
     <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B7" s="36"/>
       <c r="C7" s="32" t="s">
@@ -2589,7 +2587,7 @@
         <v>94</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>34</v>

--- a/chiloPro/template-series/structure-books.xlsx
+++ b/chiloPro/template-series/structure-books.xlsx
@@ -862,13 +862,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>改定日</t>
-    <rPh sb="0" eb="3">
-      <t>カイテイビ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>identifier</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -880,6 +873,16 @@
   </si>
   <si>
     <t>revised</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>改訂日</t>
+    <rPh sb="0" eb="2">
+      <t>カイテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2330,11 +2333,11 @@
     </row>
     <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" s="36"/>
       <c r="C7" s="32" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D7" s="65"/>
     </row>
@@ -2535,7 +2538,7 @@
         <v>93</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>18</v>
@@ -2587,7 +2590,7 @@
         <v>94</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>34</v>

--- a/chiloPro/template-series/structure-books.xlsx
+++ b/chiloPro/template-series/structure-books.xlsx
@@ -876,12 +876,12 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>改訂日</t>
-    <rPh sb="0" eb="2">
-      <t>カイテイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒ</t>
+    <t>改訂版発行日</t>
+    <rPh sb="0" eb="3">
+      <t>カイテイバン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ハッコウビ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>

--- a/chiloPro/template-series/structure-books.xlsx
+++ b/chiloPro/template-series/structure-books.xlsx
@@ -31,16 +31,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="100">
   <si>
     <t>cover</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>epub-download-url</t>
-  </si>
-  <si>
-    <t>page</t>
   </si>
   <si>
     <t>main</t>
@@ -73,16 +70,6 @@
   <si>
     <t>page-type（必須）</t>
     <rPh sb="10" eb="12">
-      <t>ヒッス</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>section（B2以降必須）</t>
-    <rPh sb="10" eb="12">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
       <t>ヒッス</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -257,23 +244,6 @@
 test…テストページ</t>
     <rPh sb="31" eb="33">
       <t>カイセツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>セクションタイトル
-────────</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ページタイトル
-───────
-page-typeがtestの場合は記載する必要がありません</t>
-    <rPh sb="34" eb="36">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -755,9 +725,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>vol-1</t>
-  </si>
-  <si>
     <t>TRUE</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -883,6 +850,37 @@
     <rPh sb="3" eb="6">
       <t>ハッコウビ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>chapter（B2以降必須）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>チャプタータイトル
+────────</t>
+  </si>
+  <si>
+    <t>セクションタイトル
+───────
+page-typeがtestの場合は記載する必要がありません</t>
+    <rPh sb="36" eb="38">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>section</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>vol-1</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1521,7 +1519,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1841,6 +1839,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2263,128 +2265,128 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B1" s="34">
         <v>1</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="33" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="33" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B4" s="34"/>
       <c r="C4" s="32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="33" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B5" s="34"/>
       <c r="C5" s="32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="65"/>
     </row>
     <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B6" s="61"/>
       <c r="C6" s="32" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D6" s="65"/>
     </row>
     <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="33" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B7" s="36"/>
       <c r="C7" s="32" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D7" s="65"/>
     </row>
     <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B8" s="34"/>
       <c r="C8" s="32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="66"/>
     </row>
     <row r="9" spans="1:5" ht="114" x14ac:dyDescent="0.15">
       <c r="A9" s="33" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="33" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="32" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A11" s="33" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B11" s="47"/>
       <c r="C11" s="32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -2393,85 +2395,85 @@
       </c>
       <c r="B12" s="34"/>
       <c r="C12" s="32" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="33" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B13" s="47"/>
       <c r="C13" s="32" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E13" s="76" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="33" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B14" s="34"/>
       <c r="C14" s="32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E14" s="76"/>
     </row>
     <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="33" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B15" s="46"/>
       <c r="C15" s="32" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D15" s="65"/>
       <c r="E15" s="76"/>
     </row>
     <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="33" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B16" s="34"/>
       <c r="C16" s="32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D16" s="66"/>
       <c r="E16" s="76"/>
     </row>
     <row r="17" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="33" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B17" s="34"/>
       <c r="C17" s="32" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E17" s="76"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="30" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C18" s="28"/>
       <c r="D18" s="29"/>
     </row>
     <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="67" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B20" s="68"/>
       <c r="C20" s="69"/>
@@ -2526,30 +2528,30 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="56" t="s">
-        <v>84</v>
+      <c r="A2" s="95" t="s">
+        <v>99</v>
       </c>
       <c r="B2" s="57"/>
       <c r="C2" s="53"/>
@@ -2578,25 +2580,25 @@
     </row>
     <row r="5" spans="1:7" ht="128.25" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
@@ -2606,7 +2608,7 @@
       <c r="D6" s="44"/>
       <c r="F6" s="44"/>
       <c r="G6" s="45" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -2623,7 +2625,7 @@
     <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="77" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C9" s="78"/>
       <c r="D9" s="79"/>
@@ -2698,37 +2700,37 @@
   <sheetData>
     <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>8</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -2938,39 +2940,39 @@
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
       <c r="K17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="42" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A18" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="G18" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="H18" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" s="39" t="s">
         <v>38</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="J18" s="39" t="s">
-        <v>42</v>
       </c>
       <c r="K18" s="41"/>
     </row>
@@ -2984,7 +2986,7 @@
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="86" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C21" s="87"/>
       <c r="D21" s="87"/>
@@ -3089,37 +3091,37 @@
   <sheetData>
     <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>8</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -3256,39 +3258,39 @@
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
       <c r="K12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="42" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A13" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="G13" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="H13" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" s="39" t="s">
         <v>38</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="J13" s="39" t="s">
-        <v>42</v>
       </c>
       <c r="K13" s="41"/>
     </row>
@@ -3302,7 +3304,7 @@
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="86" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C16" s="87"/>
       <c r="D16" s="87"/>
@@ -3395,61 +3397,61 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">

--- a/chiloPro/template-series/structure-books.xlsx
+++ b/chiloPro/template-series/structure-books.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="101">
   <si>
     <t>cover</t>
     <phoneticPr fontId="3"/>
@@ -881,6 +881,13 @@
   </si>
   <si>
     <t>vol-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Javascriptのファイル名
+─────
+ページに組み込むJavascriptのファイル名を記入してください。
+※Standard CHiLO Bookには対応しておりません。</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1739,6 +1746,10 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1839,10 +1850,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2309,7 +2316,7 @@
       <c r="C4" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="65" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2321,7 +2328,7 @@
       <c r="C5" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="65"/>
+      <c r="D5" s="66"/>
     </row>
     <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="33" t="s">
@@ -2331,7 +2338,7 @@
       <c r="C6" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="65"/>
+      <c r="D6" s="66"/>
     </row>
     <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="33" t="s">
@@ -2341,7 +2348,7 @@
       <c r="C7" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="65"/>
+      <c r="D7" s="66"/>
     </row>
     <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="33" t="s">
@@ -2351,7 +2358,7 @@
       <c r="C8" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="66"/>
+      <c r="D8" s="67"/>
     </row>
     <row r="9" spans="1:5" ht="114" x14ac:dyDescent="0.15">
       <c r="A9" s="33" t="s">
@@ -2412,7 +2419,7 @@
       <c r="D13" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="76" t="s">
+      <c r="E13" s="77" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2424,10 +2431,10 @@
       <c r="C14" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="76"/>
+      <c r="E14" s="77"/>
     </row>
     <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="33" t="s">
@@ -2437,8 +2444,8 @@
       <c r="C15" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="65"/>
-      <c r="E15" s="76"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="77"/>
     </row>
     <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="33" t="s">
@@ -2448,8 +2455,8 @@
       <c r="C16" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="66"/>
-      <c r="E16" s="76"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="77"/>
     </row>
     <row r="17" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="33" t="s">
@@ -2462,7 +2469,7 @@
       <c r="D17" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="76"/>
+      <c r="E17" s="77"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="30" t="s">
@@ -2472,26 +2479,26 @@
       <c r="D18" s="29"/>
     </row>
     <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="69"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="70"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="70"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="72"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="73"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="70"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="72"/>
+      <c r="A22" s="71"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="73"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="73"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="75"/>
+      <c r="A23" s="74"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="76"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -2550,7 +2557,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="64" t="s">
         <v>99</v>
       </c>
       <c r="B2" s="57"/>
@@ -2624,36 +2631,36 @@
     </row>
     <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="80"/>
       <c r="F9" s="54"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="82"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="83"/>
       <c r="F10" s="54"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="80"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="82"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="83"/>
       <c r="F11" s="54"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="80"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="82"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="83"/>
       <c r="F12" s="54"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="83"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="85"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="86"/>
       <c r="F13" s="54"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -2691,7 +2698,7 @@
     <col min="5" max="5" width="40.625" style="8" customWidth="1"/>
     <col min="6" max="6" width="30.625" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="8" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="25" style="8" customWidth="1"/>
     <col min="9" max="9" width="37.5" style="8" customWidth="1"/>
     <col min="10" max="10" width="17.875" style="8" customWidth="1"/>
     <col min="11" max="11" width="8.875" style="4"/>
@@ -2943,7 +2950,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="42" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" s="42" customFormat="1" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A18" s="39" t="s">
         <v>34</v>
       </c>
@@ -2966,7 +2973,7 @@
         <v>37</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="I18" s="39" t="s">
         <v>82</v>
@@ -2985,48 +2992,48 @@
       <c r="K20" s="19"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="86" t="s">
+      <c r="B21" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="89"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B22" s="89"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="91"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="92"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B23" s="89"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="91"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="92"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B24" s="89"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="91"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="92"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B25" s="89"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="91"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="92"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B26" s="89"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="91"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="92"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B27" s="92"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="94"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="95"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -3082,7 +3089,7 @@
     <col min="5" max="5" width="40.625" style="8" customWidth="1"/>
     <col min="6" max="6" width="25.5" style="8" customWidth="1"/>
     <col min="7" max="7" width="13.875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="8" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="8" customWidth="1"/>
     <col min="9" max="9" width="37.5" style="8" customWidth="1"/>
     <col min="10" max="10" width="17.875" style="8" customWidth="1"/>
     <col min="11" max="11" width="8.875" style="4"/>
@@ -3303,48 +3310,48 @@
       <c r="K15" s="19"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="89"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" s="89"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="91"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="92"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B18" s="89"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="91"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="92"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B19" s="89"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="91"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="92"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B20" s="89"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="91"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="92"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B21" s="89"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="91"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="92"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B22" s="92"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="94"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="95"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/chiloPro/template-series/structure-books.xlsx
+++ b/chiloPro/template-series/structure-books.xlsx
@@ -31,15 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
   <si>
     <t>cover</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>epub-download-url</t>
-  </si>
-  <si>
     <t>main</t>
   </si>
   <si>
@@ -50,9 +47,6 @@
   </si>
   <si>
     <t>javascript-file</t>
-  </si>
-  <si>
-    <t>youtube-id</t>
   </si>
   <si>
     <t>CC</t>
@@ -222,16 +216,6 @@
       <t>バアイ</t>
     </rPh>
     <rPh sb="108" eb="110">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Hybrid CHiLO BookのダウンロードURL
-─────────────────
-Web CHiLO Bookに表示される、Hybrid CHiLO BookのダウンロードURLです。
-記載しない場合は、ダウンロードアイコンが表示されません。</t>
-    <rPh sb="61" eb="63">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -420,48 +404,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>OGP設定しない場合は記載する必要がありません。
-OGPの詳細は、http://ogp.me をご覧ください。</t>
-    <rPh sb="3" eb="5">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>ラン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>CHiLO BookをGoogle カスタム検索の対象としない場合は、記載する必要はありません。</t>
-    <rPh sb="22" eb="24">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>ここで記載したバージョン情報は出力されるCHiLO Bookでは利用されません。</t>
   </si>
   <si>
@@ -494,38 +436,6 @@
   </si>
   <si>
     <t>series-url</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>fb:admins</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Web CHiLO BookのOGPに指定するfb:admins</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>fb-app-id</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Web CHiLO BookのOGPに指定するfb:app_id</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>og:site_name</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Web CHiLO BookのOGPに指定するサイト名</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>google-analytics-id</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Web CHiLO Bookで使用するトラッキングID</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -721,10 +631,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>Web CHiLO Bookを書き出す場合は、入力してください。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>TRUE</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -773,29 +679,6 @@
     </rPh>
     <rPh sb="6" eb="9">
       <t>ハッコウビ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>deploy-url</t>
-  </si>
-  <si>
-    <t>Web CHiLO BookのOGPに指定するURL</t>
-    <rPh sb="19" eb="21">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Web CHiLO BookをアップロードするURLの、/vol-x-html/より前の部分を記入します。</t>
-    <rPh sb="42" eb="43">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>キニュウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -853,10 +736,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>chapter（B2以降必須）</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>section</t>
   </si>
   <si>
@@ -876,10 +755,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>section</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>vol-1</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -888,6 +763,20 @@
 ─────
 ページに組み込むJavascriptのファイル名を記入してください。
 ※Standard CHiLO Bookには対応しておりません。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>video-id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>chapter（必須）</t>
+    <rPh sb="8" eb="10">
+      <t>ヒッス</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -898,7 +787,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1027,13 +916,6 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1067,7 +949,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1125,19 +1007,6 @@
       <bottom style="double">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1329,15 +1198,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1526,7 +1386,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1564,9 +1424,6 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1596,13 +1453,10 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1629,28 +1483,28 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1658,10 +1512,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1670,20 +1524,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="37" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="37" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1694,15 +1538,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1734,7 +1572,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="176" fontId="14" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1749,14 +1587,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1768,12 +1609,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1783,11 +1624,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1798,12 +1636,12 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1813,8 +1651,9 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1828,14 +1667,14 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1848,8 +1687,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1925,72 +1767,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>248445</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>70334</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>184147</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>138507</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15812295" y="6194909"/>
-          <a:ext cx="6107902" cy="239623"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2257,7 +2033,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2266,259 +2042,193 @@
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.625" customWidth="1"/>
     <col min="3" max="3" width="46.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.75" style="27" customWidth="1"/>
+    <col min="4" max="4" width="75.75" style="25" customWidth="1"/>
     <col min="5" max="5" width="48.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="34">
+    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="32">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="C1" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="59"/>
+    </row>
+    <row r="6" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="31" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="59"/>
+    </row>
+    <row r="7" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="C7" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="59"/>
+    </row>
+    <row r="8" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="32" t="s">
+      <c r="B8" s="32"/>
+      <c r="C8" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D8" s="60"/>
+    </row>
+    <row r="9" spans="1:4" ht="114" x14ac:dyDescent="0.15">
+      <c r="A9" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="42"/>
+      <c r="C11" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="65" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="66"/>
-    </row>
-    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="66"/>
-    </row>
-    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="66"/>
-    </row>
-    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="67"/>
-    </row>
-    <row r="9" spans="1:5" ht="114" x14ac:dyDescent="0.15">
-      <c r="A9" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="33" t="s">
+    <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="32"/>
+      <c r="C12" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="33" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" s="77" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="77"/>
-    </row>
-    <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="66"/>
-      <c r="E15" s="77"/>
-    </row>
-    <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="77"/>
-    </row>
-    <row r="17" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="33" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+    </row>
+    <row r="15" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="77"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
-    </row>
-    <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="70"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="71"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="73"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="71"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="73"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="74"/>
-      <c r="B23" s="75"/>
-      <c r="C23" s="76"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="63"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="64"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="66"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="64"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="66"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="67"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="69"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="A20:C23"/>
-    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="A15:C18"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2529,142 +2239,129 @@
     <col min="3" max="3" width="47" style="2" customWidth="1"/>
     <col min="4" max="4" width="32.75" style="2" customWidth="1"/>
     <col min="5" max="5" width="43.25" style="2" customWidth="1"/>
-    <col min="6" max="7" width="37.875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="2"/>
+    <col min="6" max="6" width="37.875" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="51"/>
+    </row>
+    <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="51"/>
+    </row>
+    <row r="4" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="53"/>
+    </row>
+    <row r="5" spans="1:6" ht="128.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="64" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-    </row>
-    <row r="3" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="56"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-    </row>
-    <row r="4" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-    </row>
-    <row r="5" spans="1:7" ht="128.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="45" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D5" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="F6" s="41"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F7" s="7"/>
-      <c r="G7" s="43"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
-      <c r="B9" s="78" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="80"/>
-      <c r="F9" s="54"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="71"/>
+      <c r="D9" s="72"/>
+      <c r="F9" s="47"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="83"/>
-      <c r="F10" s="54"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="81"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="83"/>
-      <c r="F11" s="54"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="81"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="83"/>
-      <c r="F12" s="54"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="84"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="86"/>
-      <c r="F13" s="54"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F14" s="55"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="75"/>
+      <c r="F10" s="47"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B11" s="73"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="75"/>
+      <c r="F11" s="47"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B12" s="73"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="75"/>
+      <c r="F12" s="47"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B13" s="76"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="78"/>
+      <c r="F13" s="47"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F14" s="48"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -2705,335 +2402,335 @@
     <col min="12" max="16384" width="8.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="11" t="s">
+    <row r="1" spans="1:11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>7</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
       <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
       <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
       <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="23"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
+    <row r="17" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
       <c r="K17" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="40" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="37" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" s="42" customFormat="1" ht="175.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="39" t="s">
+      <c r="B18" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="40" t="s">
+      <c r="H18" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="I18" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="J18" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18" s="41"/>
-    </row>
-    <row r="19" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D19" s="18"/>
-      <c r="K19" s="19"/>
-    </row>
-    <row r="20" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D20" s="18"/>
-      <c r="K20" s="19"/>
+      <c r="K18" s="39"/>
+    </row>
+    <row r="19" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D19" s="17"/>
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D20" s="17"/>
+      <c r="K20" s="18"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
+      <c r="B21" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="81"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B22" s="90"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="92"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="84"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B23" s="90"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="92"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="84"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B24" s="90"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="92"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="84"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B25" s="90"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="92"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="84"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B26" s="90"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="92"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="84"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B27" s="93"/>
-      <c r="C27" s="94"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="95"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="87"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -3096,262 +2793,262 @@
     <col min="12" max="16384" width="8.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="11" t="s">
+    <row r="1" spans="1:11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>7</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="21"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
       <c r="K12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="40" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="37" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" s="42" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="39" t="s">
+      <c r="B13" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="40" t="s">
+      <c r="H13" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="J13" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13" s="41"/>
-    </row>
-    <row r="14" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D14" s="18"/>
-      <c r="K14" s="19"/>
-    </row>
-    <row r="15" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D15" s="18"/>
-      <c r="K15" s="19"/>
+      <c r="K13" s="39"/>
+    </row>
+    <row r="14" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="17"/>
+      <c r="K14" s="18"/>
+    </row>
+    <row r="15" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D15" s="17"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="89"/>
+      <c r="B16" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="81"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" s="90"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="92"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="84"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B18" s="90"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="92"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="84"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B19" s="90"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="92"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="84"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B20" s="90"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="92"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="84"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B21" s="90"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="92"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="84"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B22" s="93"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="95"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="87"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -3403,68 +3100,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="B2" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>

--- a/chiloPro/template-series/structure-books.xlsx
+++ b/chiloPro/template-series/structure-books.xlsx
@@ -18,7 +18,7 @@
     <sheet name="書籍構成シート" sheetId="38" r:id="rId4"/>
     <sheet name="書籍構成シート選択用" sheetId="35" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="83">
   <si>
     <t>cover</t>
     <phoneticPr fontId="3"/>
@@ -108,20 +108,6 @@
     <t>CC by-NC-ND</t>
   </si>
   <si>
-    <t>（必須）書籍の言語</t>
-    <rPh sb="1" eb="3">
-      <t>ヒッス</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>（必須）著者名</t>
-    <rPh sb="1" eb="3">
-      <t>ヒッス</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>著作権者</t>
     <rPh sb="0" eb="4">
       <t>チョサクケンシャ</t>
@@ -129,16 +115,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>（必須）CHiLO Bookのシリーズ名</t>
-    <rPh sb="1" eb="3">
-      <t>ヒッス</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>シリーズの紹介文</t>
     <rPh sb="5" eb="8">
       <t>ショウカイブン</t>
@@ -195,39 +171,6 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>CHiLOコミュニティのURL
-────────────
-Facebook、Twitter、Moodleフォーラムなど、任意のSNSをCHiLOコミュニティとし指定できます。
-記載しない場合は、コミュニティアイコンが表示されません。</t>
-    <rPh sb="60" eb="62">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ページタイプ
-──────
-ページのタイプ
-document…解説ページ
-test…テストページ</t>
-    <rPh sb="31" eb="33">
-      <t>カイセツ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -350,63 +293,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ja, enなど、言語をRFC 5646形式で記載します。
-入力した言語は、epub3 パッケージドキュメントのdc:language に設定されます。</t>
-    <rPh sb="9" eb="11">
-      <t>ゲンゴ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ゲンゴ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>「Copyright」ページに挿入されます。author.xlsxで指定したシート名と一致させてください。</t>
-    <rPh sb="15" eb="17">
-      <t>ソウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>「Copyright」ページに挿入されます。記載しない場合は、項目自体が表示されません。</t>
-    <rPh sb="15" eb="17">
-      <t>ソウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>シリーズ紹介のホームページがあれば、記載します。
-「シリーズの紹介」ページのシリーズの紹介文の下に挿入されます。</t>
-    <rPh sb="4" eb="6">
-      <t>ショウカイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ショウカイ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>シタ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ここで記載したバージョン情報は出力されるCHiLO Bookでは利用されません。</t>
-  </si>
-  <si>
     <t>language</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -448,29 +334,6 @@
     </rPh>
     <rPh sb="7" eb="10">
       <t>カンリヨウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>「はじめにお読みください」セクションの「シリーズの紹介」ページに挿入されます。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>各セクションの内表紙画像として使用されます。</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ウチ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウシ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -581,54 +444,10 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t xml:space="preserve">・ シリーズの各ブックに関する情報を記載するシートです。
-・ 制作するブックの冊数分だけ、行を挿入して必要事項を記載ください。
-・ 変更してはいけないセルに保護がかかっています。シートの保護解除のパスワードはつけていません。
-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t xml:space="preserve">・ シリーズに関する情報を記載するシートです。
 ・ 変更してはいけないセルに保護がかかっています。シートの保護解除のパスワードはつけていません。
 </t>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>CHiLO Bookの書籍タイトルは
-series-name &amp; " " &amp; 第n章 &amp; " " &amp;  book-title (book-listシートで定義）
-となります。
-この書籍タイトルは、epub3 パッケージドキュメントのdc:titleに設定されるほか、「Copyright」ページに挿入されます。
-また、 Hyblid CHiLOBook のファイル名に挿入されます。ファイル名は
-output-name &amp; series-name &amp; - &amp; vol-n &amp; .epub3
-となります。</t>
-    <rPh sb="11" eb="13">
-      <t>ショセキ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>ショセキ</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="148" eb="150">
-      <t>ソウニュウ</t>
-    </rPh>
-    <rPh sb="184" eb="186">
-      <t>ソウニュウ</t>
-    </rPh>
-    <rPh sb="195" eb="196">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>TRUE</t>
@@ -670,16 +489,6 @@
 Web CHiLO Book用の解説ビデオをYoutubeから配信する場合、登録したYoutubeビデオのURLに含まれるビデオIDを入力します。
 （例）https://www.youtube.com/watch?v=W6l-nifsu6w　の?v=以降の部分
 注意：入力した場合、ローカル環境からはビデオの再生を確認できません。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>（必須）初版発行日</t>
-    <rPh sb="4" eb="6">
-      <t>ショハン</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ハッコウビ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -779,6 +588,149 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>書籍の言語</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>* 必須
+* ja, enなど、言語をRFC 5646形式で記載します。</t>
+    <rPh sb="2" eb="4">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>* 必須</t>
+    <rPh sb="2" eb="4">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>* 必須
+* 「Copyright」ページに挿入されます。記載しない場合は、項目自体が表示されません。</t>
+    <rPh sb="2" eb="4">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CHiLO Bookのシリーズ名</t>
+    <rPh sb="15" eb="16">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>初版発行日</t>
+    <rPh sb="0" eb="2">
+      <t>ショハン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ハッコウビ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>* 「はじめにお読みください」セクションの「シリーズの紹介」ページに挿入されます。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>* 「シリーズの紹介」ページのシリーズの紹介文の下に挿入されます。</t>
+    <rPh sb="20" eb="22">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>* 各セクションの内表紙画像として使用されます。</t>
+    <rPh sb="2" eb="3">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウシ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CHiLOコミュニティのURL
+────────────
+Facebook、Twitter、Moodleフォーラムなど、任意のSNSをCHiLOコミュニティとして指定できます。
+記載しない場合は、コミュニティアイコンが表示されません。</t>
+    <rPh sb="60" eb="62">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ページタイプ
+──────
+ページのタイプ
+document…解説ページ
+test…テストページ
+小文字で入力してください。、</t>
+    <rPh sb="31" eb="33">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="50" eb="53">
+      <t>コモジ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>著者名</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・ シリーズの各ブックに関する情報を記載するシートです。
+・ 制作するブックの冊数分だけ、行を挿入して必要事項を記載ください。
+・ 変更してはいけないセルに保護がかかっています。シートの保護解除のパスワードはつけていません。
+</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -787,7 +739,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -916,6 +868,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1588,6 +1547,13 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1624,7 +1590,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1685,13 +1651,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2048,128 +2007,126 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="31" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B1" s="32">
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="29" t="s">
         <v>44</v>
       </c>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A2" s="31" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="30" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="30" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="31" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B4" s="32"/>
       <c r="C4" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="58" t="s">
-        <v>42</v>
+        <v>23</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="31" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="59"/>
+        <v>24</v>
+      </c>
+      <c r="D5" s="61"/>
     </row>
     <row r="6" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="31" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B6" s="54"/>
       <c r="C6" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="59"/>
+        <v>75</v>
+      </c>
+      <c r="D6" s="61"/>
     </row>
     <row r="7" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="31" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B7" s="34"/>
       <c r="C7" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="59"/>
+        <v>61</v>
+      </c>
+      <c r="D7" s="61"/>
     </row>
     <row r="8" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="31" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B8" s="32"/>
       <c r="C8" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="60"/>
-    </row>
-    <row r="9" spans="1:4" ht="114" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="D8" s="62"/>
+    </row>
+    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="31" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="30" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="31" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B10" s="35"/>
       <c r="C10" s="30" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="31" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="30" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -2178,40 +2135,40 @@
       </c>
       <c r="B12" s="32"/>
       <c r="C12" s="30" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="28" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="27"/>
     </row>
     <row r="15" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="63"/>
+      <c r="A15" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="64"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="66"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="68"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="64"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="66"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="68"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="67"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="69"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="71"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -2248,16 +2205,16 @@
         <v>7</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>14</v>
@@ -2265,10 +2222,10 @@
     </row>
     <row r="2" spans="1:6" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="57" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B2" s="50"/>
-      <c r="C2" s="89"/>
+      <c r="C2" s="59"/>
       <c r="D2" s="45"/>
       <c r="E2" s="55"/>
       <c r="F2" s="51"/>
@@ -2291,22 +2248,22 @@
     </row>
     <row r="5" spans="1:6" ht="128.25" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -2328,36 +2285,36 @@
     </row>
     <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
-      <c r="B9" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="72"/>
+      <c r="B9" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="73"/>
+      <c r="D9" s="74"/>
       <c r="F9" s="47"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="77"/>
       <c r="F10" s="47"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="73"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="75"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="77"/>
       <c r="F11" s="47"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="73"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="75"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
       <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="76"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="78"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="80"/>
       <c r="F13" s="47"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -2407,13 +2364,13 @@
         <v>8</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="88" t="s">
-        <v>82</v>
+        <v>62</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>67</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>1</v>
@@ -2428,13 +2385,13 @@
         <v>4</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="J1" s="15" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.15">
@@ -2644,39 +2601,39 @@
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
       <c r="K17" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="40" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A18" s="37" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G18" s="37" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H18" s="37" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I18" s="37" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="J18" s="37" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K18" s="39"/>
     </row>
@@ -2689,48 +2646,48 @@
       <c r="K20" s="18"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="79" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="81"/>
+      <c r="B21" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="83"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B22" s="82"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="84"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="86"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B23" s="82"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="84"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="86"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B24" s="82"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="84"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="86"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B25" s="82"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="84"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="86"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B26" s="82"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="84"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="86"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B27" s="85"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="87"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="89"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -2798,13 +2755,13 @@
         <v>8</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="88" t="s">
-        <v>82</v>
+        <v>62</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>67</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>1</v>
@@ -2819,13 +2776,13 @@
         <v>4</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="J1" s="15" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.15">
@@ -2962,39 +2919,39 @@
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
       <c r="K12" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="40" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A13" s="37" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F13" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="37" t="s">
-        <v>38</v>
-      </c>
       <c r="I13" s="37" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K13" s="39"/>
     </row>
@@ -3007,48 +2964,48 @@
       <c r="K15" s="18"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="79" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="81"/>
+      <c r="B16" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="83"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" s="82"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="84"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="86"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B18" s="82"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="84"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="86"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B19" s="82"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="84"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="86"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B20" s="82"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="84"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="86"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B21" s="82"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="84"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="86"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B22" s="85"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="87"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="89"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -3115,7 +3072,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>6</v>
@@ -3123,7 +3080,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">

--- a/chiloPro/template-series/structure-books.xlsx
+++ b/chiloPro/template-series/structure-books.xlsx
@@ -5,21 +5,23 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHiLO-Producer\chiloPro\template-series\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ties\Desktop\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="8175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21795" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="series-information" sheetId="37" r:id="rId1"/>
     <sheet name="book-list" sheetId="28" r:id="rId2"/>
     <sheet name="vol-1" sheetId="33" r:id="rId3"/>
-    <sheet name="書籍構成シート" sheetId="38" r:id="rId4"/>
-    <sheet name="書籍構成シート選択用" sheetId="35" state="hidden" r:id="rId5"/>
+    <sheet name="書籍構成シート選択用" sheetId="35" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -31,10 +33,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>cover</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>main</t>
@@ -59,14 +61,14 @@
     <rPh sb="4" eb="6">
       <t>ヒッス</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>page-type（必須）</t>
     <rPh sb="10" eb="12">
       <t>ヒッス</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>CC by-SA</t>
@@ -79,27 +81,27 @@
   </si>
   <si>
     <t>community</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>book-summary</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>community-url</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>page-type</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>CC</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>document</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>CC by-NC</t>
@@ -112,28 +114,28 @@
     <rPh sb="0" eb="4">
       <t>チョサクケンシャ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>シリーズの紹介文</t>
     <rPh sb="5" eb="8">
       <t>ショウカイブン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>シリーズ紹介ページのURL</t>
     <rPh sb="4" eb="6">
       <t>ショウカイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>発行者名</t>
     <rPh sb="3" eb="4">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>編集者名</t>
@@ -143,17 +145,7 @@
     <rPh sb="3" eb="4">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>←項目名は変更できません</t>
-    <rPh sb="1" eb="4">
-      <t>コウモクメイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>←最後は必ず空白行で終了します</t>
@@ -172,174 +164,50 @@
     <rPh sb="10" eb="12">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>CHiLOコミュニティの表示
-──────────
-CHiLOコミュニティへのリンクボタンの表示する場合は、「TRUE」とします。
-book-listのcommunity-urlを記載した場合のみ機能します。</t>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">解説ﾋﾞﾃﾞｵのｻﾑﾈｲﾙﾌｧｲﾙ名
-────────────
-</t>
-    <rPh sb="0" eb="2">
-      <t>カイセツ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>解説テキストのファイル名
-─────</t>
-    <rPh sb="0" eb="2">
-      <t>カイセツ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>CCBYのライセンス
-────────
-CCBYでない場合は記載する必要がありません。</t>
-    <rPh sb="28" eb="30">
-      <t>ナイバアイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>book-title</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>（必須）巻数
-──────
-vol-nの形式で順に記載します。</t>
-    <rPh sb="1" eb="3">
-      <t>ヒッス</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>サッスウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Javascriptのファイル名
-─────
-現在のバージョンでは対応しておりません。</t>
-    <rPh sb="15" eb="16">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>各CHiLO Bookの概要
-────────────
-「はじめにお読みください」セクションの「ブック概要」ページに挿入されます。</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ソウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>language</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>creator</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>publisher</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>editor</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>published</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>rights</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>series-introduction</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>series-url</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>構造ファイルの管理用バージョン</t>
-    <rPh sb="0" eb="2">
-      <t>コウゾウ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>カンリヨウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>↑項目名は変更できません</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>「必要な素材」の「B. 内表紙画像」のファイル名</t>
@@ -349,113 +217,15 @@
     <rPh sb="4" eb="6">
       <t>ソザイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>series-name</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>CHiLO Bookのタイトル
-────────────
-CHiLO Bookの書籍タイトルは
- (series-informationシートで定義）series-name &amp; " " &amp; 第n章 &amp; " " &amp;  book-title
-となります。
-この書籍タイトルは、epub3 パッケージドキュメントのdc:titleに設定されるほか、「Copyright」ページに挿入されます。</t>
-    <rPh sb="10" eb="11">
-      <t>ホンンオ</t>
-    </rPh>
-    <rPh sb="95" eb="96">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="97" eb="98">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>ページのメインコンテンツ
-────────────
-page-typeによって指定するメインコンテンツが違います。
-cover…表紙画像のファイル名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（表紙画像が無い場合は空白にしてください）
-document…解説ビデオのファイル名
-test…Moodleの確認テストのURL</t>
-    </r>
-    <rPh sb="39" eb="41">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>チガ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ヒョウシ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>ヒョウシ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="105" eb="107">
-      <t>カイセツ</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="129" eb="131">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">・ ブックの解説ページと確認テストページに関するシートです。
-・ page-typeを指定して、行を追加するとCHiLO Bookのページが追加されます。
-・ ブックの数だけ書籍構成シートをコピーして、1冊のブックにつき1シート作成します。
-・ シート名は、book-listの「vol」の列と一致させてください。
-・変更してはいけないセルに保護がかかっています。シートの保護解除のパスワードはつけていません。
-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">・ シリーズに関する情報を記載するシートです。
-・ 変更してはいけないセルに保護がかかっています。シートの保護解除のパスワードはつけていません。
-</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>TRUE</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>test</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>解説ビデオのYoutubeID
@@ -481,15 +251,7 @@
     <rPh sb="166" eb="168">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>解説ビデオのYoutubeID
-─────
-Web CHiLO Book用の解説ビデオをYoutubeから配信する場合、登録したYoutubeビデオのURLに含まれるビデオIDを入力します。
-（例）https://www.youtube.com/watch?v=W6l-nifsu6w　の?v=以降の部分
-注意：入力した場合、ローカル環境からはビデオの再生を確認できません。</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -499,14 +261,14 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>over</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>表紙画像
@@ -518,21 +280,15 @@
     <rPh sb="2" eb="4">
       <t>ガゾウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>identifier</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>CHiLO BookのユニークID。
-──────────────────
-epub3パッケージドキュメント（拡張子がopfのドキュメント）のidentierに設定されます。</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>revised</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>改訂版発行日</t>
@@ -542,71 +298,21 @@
     <rPh sb="3" eb="6">
       <t>ハッコウビ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>section</t>
-  </si>
-  <si>
-    <t>チャプタータイトル
-────────</t>
-  </si>
-  <si>
-    <t>セクションタイトル
-───────
-page-typeがtestの場合は記載する必要がありません</t>
-    <rPh sb="36" eb="38">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>vol-1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Javascriptのファイル名
-─────
-ページに組み込むJavascriptのファイル名を記入してください。
-※Standard CHiLO Bookには対応しておりません。</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>community</t>
   </si>
   <si>
     <t>video-id</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>chapter（必須）</t>
-    <rPh sb="8" eb="10">
-      <t>ヒッス</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>書籍の言語</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>* 必須
-* ja, enなど、言語をRFC 5646形式で記載します。</t>
-    <rPh sb="2" eb="4">
-      <t>ヒッス</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ゲンゴ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>キサイ</t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -614,7 +320,7 @@
     <rPh sb="2" eb="4">
       <t>ヒッス</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>* 必須
@@ -625,14 +331,14 @@
     <rPh sb="22" eb="24">
       <t>ソウニュウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>CHiLO Bookのシリーズ名</t>
     <rPh sb="15" eb="16">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>初版発行日</t>
@@ -642,11 +348,11 @@
     <rPh sb="2" eb="5">
       <t>ハッコウビ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>* 「はじめにお読みください」セクションの「シリーズの紹介」ページに挿入されます。</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>* 「シリーズの紹介」ページのシリーズの紹介文の下に挿入されます。</t>
@@ -659,7 +365,7 @@
     <rPh sb="24" eb="25">
       <t>シタ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>* 各セクションの内表紙画像として使用されます。</t>
@@ -678,72 +384,297 @@
     <rPh sb="17" eb="19">
       <t>シヨウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>CHiLOコミュニティのURL
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>著者名</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>section（必須）</t>
+    <rPh sb="8" eb="10">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>topic</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>structure-books.xlsxのバージョン</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>（必須）巻数
+──────
+「vol-数字」
+の形式で順に記載します。</t>
+    <rPh sb="1" eb="3">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サッスウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>series-name</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CHiLO BookのユニークID。
+──────────────────
+content.opfに設定されます。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>各CHiLO Bookの概要
 ────────────
-Facebook、Twitter、Moodleフォーラムなど、任意のSNSをCHiLOコミュニティとして指定できます。
-記載しない場合は、コミュニティアイコンが表示されません。</t>
-    <rPh sb="60" eb="62">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
+「はじめにお読みください」セクションの「ブック概要」に挿入されます。</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>セクションタイトル
+────────</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ページのメインコンテンツ
+────────────
+page-typeによって指定するメインコンテンツが違います。
+document…解説ビデオのファイル名
+test…MoodleクイズのURL</t>
+    <rPh sb="39" eb="41">
       <t>シテイ</t>
     </rPh>
-    <rPh sb="89" eb="91">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
+    <rPh sb="52" eb="53">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Javascriptのファイル名
+─────
+ページに組み込むJavascriptのファイル名を記入してください。</t>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>ページタイプ
 ──────
 ページのタイプ
-document…解説ページ
-test…テストページ
-小文字で入力してください。、</t>
+document
+…ビデオ解説ページ
+test
+…クイズページ
+小文字で入力してください。</t>
+    <rPh sb="35" eb="37">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="54" eb="57">
+      <t>コモジ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SNSのURL
+────────────
+Facebook、Twitter、Moodleフォーラムなど、任意のSNSを学習コミュニティとして指定できます。
+記載しない場合は、コミュニティアイコンが表示されません。</t>
+    <rPh sb="52" eb="54">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>* 必須　authors.xlsxのシート名と一致させてください。</t>
+    <rPh sb="2" eb="4">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・ シリーズに関する情報を記載するシートです。
+・ 色のついているセルは必須項目です。
+・ 変更してはいけないセルに保護がかかっています。シートの保護解除のパスワードはつけていません。</t>
+  </si>
+  <si>
+    <t>・ シリーズの各ブックに関する情報を記載するシートです。
+・ 色のついているセルは必須項目です。
+・ 制作するブックの冊数分だけ、行を挿入して必要事項を記載ください。
+・ 変更してはいけないセルに保護がかかっています。シートの保護解除のパスワードはつけていません。</t>
+  </si>
+  <si>
+    <t>コミュニティの表示
+──────────
+ページのコミュニティリンクボタンの表示非表示を指定できます。リンクボタンの表示する場合は、「TRUE」とします。book-listシートのcommunity-url項目を記載した場合のみ有効です。</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>解説ビデオサムネイルのファイル名
+────────────
+page-type項目を「document」とした場合のみ有効です。</t>
+    <rPh sb="0" eb="2">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>解説文のファイル名
+─────
+page-type項目を「document」とした場合のみ有効です。</t>
+    <rPh sb="0" eb="2">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・ ブックの解説ページと確認テストページに関するシートです。
+・ 色のついているセルは必須項目です。
+・ page-typeを指定して、行を追加するとCHiLO Bookのページが追加されます。
+・ ブックの数だけ書籍構成シートをコピーして、1冊のブックにつき1シート作成します。
+・ シート名は、book-listの「vol」の列と一致させてください。
+・変更してはいけないセルに保護がかかっています。シートの保護解除のパスワードはつけていません。
+</t>
+  </si>
+  <si>
+    <t>トピックタイトル
+───────
+page-type項目を「document」とした場合のみ有効です。「test」とした場合は記載する必要がありません。</t>
+    <rPh sb="63" eb="65">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CCのライセンス
+────────
+CCライセンスでない場合は記載する必要がありません。</t>
+    <rPh sb="28" eb="30">
+      <t>ナイバアイ</t>
+    </rPh>
     <rPh sb="31" eb="33">
-      <t>カイセツ</t>
-    </rPh>
-    <rPh sb="50" eb="53">
-      <t>コモジ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>著者名</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">・ シリーズの各ブックに関する情報を記載するシートです。
-・ 制作するブックの冊数分だけ、行を挿入して必要事項を記載ください。
-・ 変更してはいけないセルに保護がかかっています。シートの保護解除のパスワードはつけていません。
-</t>
-    <phoneticPr fontId="3"/>
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CHiLO Bookのタイトル
+────────────
+実際の書先タイトルは、
+「series-name 第n章 book-title」
+となります。series-nameは、series-informationシートのseries-name項目です。
+例）はじめての情報ネットワークI 第1章インターネットの歴史とビットの復習
+この書籍タイトルは、content.opfに設定されるほか、「Copyright」ページに挿入されます。</t>
+    <rPh sb="10" eb="11">
+      <t>ホンンオ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>あくまでも、structure-books.xlsxファイルの管理用であり、CHiLO Bookの書き出しには使われていません。ご自由に設定ください。</t>
+  </si>
+  <si>
+    <t>* 必須　ja, enなど、言語をRFC 5646形式で記載します。</t>
+    <rPh sb="2" eb="4">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -751,7 +682,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -759,14 +690,22 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -775,7 +714,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -784,7 +723,7 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -792,7 +731,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -800,7 +739,7 @@
     <font>
       <sz val="12"/>
       <color theme="0" tint="-0.34998626667073579"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -808,7 +747,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFA6A6A6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -816,7 +755,7 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -824,7 +763,7 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -832,7 +771,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -840,7 +779,7 @@
     <font>
       <sz val="11"/>
       <color theme="2" tint="-0.499984740745262"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -848,7 +787,7 @@
     <font>
       <sz val="11"/>
       <color theme="2" tint="-0.499984740745262"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -856,22 +795,15 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1053,7 +985,7 @@
         <color auto="1"/>
       </left>
       <right style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -1170,205 +1102,205 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -1379,43 +1311,43 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="37" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="37" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1427,66 +1359,62 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="37" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="37" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1497,70 +1425,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="37" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="37" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1593,28 +1528,28 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1729,7 +1664,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ホワイト">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1771,12 +1706,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1806,12 +1741,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1994,189 +1929,190 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
     <col min="2" max="2" width="55.625" customWidth="1"/>
     <col min="3" max="3" width="46.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.75" style="25" customWidth="1"/>
+    <col min="4" max="4" width="75.625" style="25" customWidth="1"/>
     <col min="5" max="5" width="48.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A1" s="31" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B1" s="32">
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="29"/>
-    </row>
-    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="21" customHeight="1">
       <c r="A2" s="31" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="30" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="31" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="30" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="31" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B4" s="32"/>
       <c r="C4" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="61" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="31" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="61"/>
-    </row>
-    <row r="6" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D5" s="62"/>
+    </row>
+    <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="54"/>
+        <v>31</v>
+      </c>
+      <c r="B6" s="53"/>
       <c r="C6" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="61"/>
-    </row>
-    <row r="7" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+      <c r="D6" s="62"/>
+    </row>
+    <row r="7" spans="1:4" ht="21" customHeight="1">
       <c r="A7" s="31" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B7" s="34"/>
       <c r="C7" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="61"/>
-    </row>
-    <row r="8" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+      <c r="D7" s="62"/>
+    </row>
+    <row r="8" spans="1:4" ht="21" customHeight="1">
       <c r="A8" s="31" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B8" s="32"/>
       <c r="C8" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="62"/>
-    </row>
-    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="31" t="s">
-        <v>47</v>
+      <c r="D8" s="63"/>
+    </row>
+    <row r="9" spans="1:4" ht="21" customHeight="1">
+      <c r="A9" s="59" t="s">
+        <v>62</v>
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="30" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="80.099999999999994" customHeight="1">
       <c r="A10" s="31" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B10" s="35"/>
       <c r="C10" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21" customHeight="1">
       <c r="A11" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="42"/>
+        <v>34</v>
+      </c>
+      <c r="B11" s="41"/>
       <c r="C11" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="21" customHeight="1">
       <c r="A12" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="32"/>
       <c r="C12" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="28" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="27"/>
     </row>
-    <row r="15" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="66"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="68"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="66"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="68"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="69"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="71"/>
+    <row r="15" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A15" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="65"/>
+      <c r="C15" s="66"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="67"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="69"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="67"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="69"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="70"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="72"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="2">
     <mergeCell ref="D4:D8"/>
     <mergeCell ref="A15:C18"/>
   </mergeCells>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2189,150 +2125,145 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
   <cols>
     <col min="1" max="1" width="14.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="37.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="47" style="2" customWidth="1"/>
-    <col min="4" max="4" width="32.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="43.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="37.875" style="2" customWidth="1"/>
     <col min="7" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="20.25" thickBot="1">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="51"/>
-    </row>
-    <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="49"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="51"/>
-    </row>
-    <row r="4" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="53"/>
-    </row>
-    <row r="5" spans="1:6" ht="128.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="48" customHeight="1" thickTop="1">
+      <c r="A2" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="50"/>
+    </row>
+    <row r="3" spans="1:6" ht="48" customHeight="1">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="50"/>
+    </row>
+    <row r="4" spans="1:6" ht="48" customHeight="1">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="52"/>
+    </row>
+    <row r="5" spans="1:6" ht="253.5">
       <c r="A5" s="20" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="F6" s="41"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="F6" s="40"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="14.25" customHeight="1">
       <c r="A9" s="6"/>
-      <c r="B9" s="72" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="74"/>
-      <c r="F9" s="47"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="74"/>
+      <c r="D9" s="75"/>
+      <c r="F9" s="46"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="6"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="77"/>
-      <c r="F10" s="47"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="75"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="77"/>
-      <c r="F11" s="47"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="75"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="77"/>
-      <c r="F12" s="47"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="78"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="80"/>
-      <c r="F13" s="47"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F14" s="48"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="78"/>
+      <c r="F10" s="46"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" s="76"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="78"/>
+      <c r="F11" s="46"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" s="76"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="78"/>
+      <c r="F12" s="46"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="79"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="81"/>
+      <c r="F13" s="46"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="F14" s="47"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="1">
     <mergeCell ref="B9:D13"/>
   </mergeCells>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2343,34 +2274,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
   <cols>
     <col min="1" max="1" width="21.625" style="8" customWidth="1"/>
     <col min="2" max="2" width="19" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="22.5" style="9" customWidth="1"/>
+    <col min="4" max="4" width="25" style="9" customWidth="1"/>
     <col min="5" max="5" width="40.625" style="8" customWidth="1"/>
     <col min="6" max="6" width="30.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="21.125" style="8" customWidth="1"/>
     <col min="8" max="8" width="25" style="8" customWidth="1"/>
-    <col min="9" max="9" width="37.5" style="8" customWidth="1"/>
+    <col min="9" max="9" width="37.5" style="8" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="17.875" style="8" customWidth="1"/>
     <col min="11" max="11" width="8.875" style="4"/>
     <col min="12" max="16384" width="8.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" customFormat="1" ht="20.25" thickBot="1">
       <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="58" t="s">
-        <v>67</v>
+        <v>59</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>47</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>1</v>
@@ -2385,20 +2316,18 @@
         <v>4</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="J1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" ht="20.25" thickTop="1">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="43"/>
+      <c r="D2" s="42"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
@@ -2407,11 +2336,11 @@
       <c r="J2" s="11"/>
       <c r="K2" s="10"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+    <row r="3" spans="1:11">
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="11"/>
-      <c r="D3" s="43"/>
+      <c r="D3" s="42"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -2420,11 +2349,11 @@
       <c r="J3" s="11"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
+    <row r="4" spans="1:11">
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="11"/>
-      <c r="D4" s="43"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -2433,11 +2362,11 @@
       <c r="J4" s="11"/>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+    <row r="5" spans="1:11">
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="11"/>
-      <c r="D5" s="43"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -2446,11 +2375,11 @@
       <c r="J5" s="11"/>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+    <row r="6" spans="1:11">
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="43"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -2459,11 +2388,11 @@
       <c r="J6" s="11"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+    <row r="7" spans="1:11">
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="43"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -2472,11 +2401,11 @@
       <c r="J7" s="11"/>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+    <row r="8" spans="1:11">
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="43"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -2485,11 +2414,11 @@
       <c r="J8" s="11"/>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
+    <row r="9" spans="1:11">
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="11"/>
-      <c r="D9" s="43"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -2498,11 +2427,11 @@
       <c r="J9" s="11"/>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
+    <row r="10" spans="1:11">
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="11"/>
-      <c r="D10" s="43"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -2511,11 +2440,11 @@
       <c r="J10" s="11"/>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
+    <row r="11" spans="1:11">
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="11"/>
-      <c r="D11" s="43"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -2524,11 +2453,11 @@
       <c r="J11" s="11"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
+    <row r="12" spans="1:11">
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="11"/>
-      <c r="D12" s="43"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -2537,11 +2466,11 @@
       <c r="J12" s="11"/>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+    <row r="13" spans="1:11">
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="11"/>
-      <c r="D13" s="43"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -2550,11 +2479,11 @@
       <c r="J13" s="11"/>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
+    <row r="14" spans="1:11">
+      <c r="A14" s="60"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="11"/>
-      <c r="D14" s="43"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
@@ -2563,11 +2492,11 @@
       <c r="J14" s="11"/>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+    <row r="15" spans="1:11">
+      <c r="A15" s="60"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="11"/>
-      <c r="D15" s="43"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
@@ -2576,11 +2505,11 @@
       <c r="J15" s="11"/>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
+    <row r="16" spans="1:11">
+      <c r="A16" s="60"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="11"/>
-      <c r="D16" s="43"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="12"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -2589,7 +2518,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" s="19" customFormat="1">
       <c r="A17" s="21"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -2601,100 +2530,100 @@
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
       <c r="K17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="40" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="39" customFormat="1" ht="165" customHeight="1">
+      <c r="A18" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="I18" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="J18" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" s="39"/>
-    </row>
-    <row r="19" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F18" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="38"/>
+    </row>
+    <row r="19" spans="1:11" s="16" customFormat="1">
       <c r="D19" s="17"/>
       <c r="K19" s="18"/>
     </row>
-    <row r="20" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" s="16" customFormat="1">
       <c r="D20" s="17"/>
       <c r="K20" s="18"/>
     </row>
-    <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="83"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B22" s="84"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="86"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B23" s="84"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="86"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B24" s="84"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="86"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B25" s="84"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="86"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B26" s="84"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="86"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B27" s="87"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="89"/>
+    <row r="21" spans="1:11" ht="14.25" customHeight="1">
+      <c r="B21" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="84"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="B22" s="85"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="87"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="B23" s="85"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="87"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="B24" s="85"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="87"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="B25" s="85"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="87"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="B26" s="85"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="87"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="B27" s="88"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="1">
     <mergeCell ref="B21:E27"/>
   </mergeCells>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -2720,329 +2649,11 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
   </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:K22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="21.625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="19" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="22.5" style="9" customWidth="1"/>
-    <col min="5" max="5" width="40.625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="25.5" style="8" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="8" customWidth="1"/>
-    <col min="9" max="9" width="37.5" style="8" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="4"/>
-    <col min="12" max="16384" width="8.875" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="10"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="40" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="J13" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" s="39"/>
-    </row>
-    <row r="14" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D14" s="17"/>
-      <c r="K14" s="18"/>
-    </row>
-    <row r="15" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D15" s="17"/>
-      <c r="K15" s="18"/>
-    </row>
-    <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="83"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" s="84"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="86"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B18" s="84"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="86"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B19" s="84"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="86"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B20" s="84"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="86"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B21" s="84"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="86"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B22" s="87"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89"/>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="1">
-    <mergeCell ref="B16:E22"/>
-  </mergeCells>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>書籍構成シート選択用!$C$2:$C$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>J2:J11</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>書籍構成シート選択用!$B$2:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D11</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>書籍構成シート選択用!$A$2:$A$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A11</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C8"/>
@@ -3051,12 +2662,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
     <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="19.5" thickBot="1">
       <c r="A1" s="15" t="s">
         <v>15</v>
       </c>
@@ -3067,67 +2678,62 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="19.5" thickTop="1">
       <c r="A2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>52</v>
+      <c r="B2" s="43" t="s">
+        <v>38</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="13" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/chiloPro/template-series/structure-books.xlsx
+++ b/chiloPro/template-series/structure-books.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ties\Desktop\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chilo-producer\chiloPro\template-series\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21795" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16635" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="series-information" sheetId="37" r:id="rId1"/>
@@ -435,12 +435,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>CHiLO BookのユニークID。
-──────────────────
-content.opfに設定されます。</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>各CHiLO Bookの概要
 ────────────
 「はじめにお読みください」セクションの「ブック概要」に挿入されます。</t>
@@ -661,6 +655,12 @@
       <t>キサイ</t>
     </rPh>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>（必須）CHiLO BookのユニークID。
+──────────────────
+content.opfに設定されます。</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -1277,7 +1277,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1460,14 +1460,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="176" fontId="15" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1951,7 +1943,7 @@
         <v>60</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21" customHeight="1">
@@ -1963,7 +1955,7 @@
         <v>49</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
@@ -1975,7 +1967,7 @@
         <v>57</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
@@ -1986,7 +1978,7 @@
       <c r="C4" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="59" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1998,7 +1990,7 @@
       <c r="C5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="62"/>
+      <c r="D5" s="60"/>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="31" t="s">
@@ -2008,7 +2000,7 @@
       <c r="C6" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="62"/>
+      <c r="D6" s="60"/>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
       <c r="A7" s="31" t="s">
@@ -2018,7 +2010,7 @@
       <c r="C7" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="62"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
       <c r="A8" s="31" t="s">
@@ -2028,10 +2020,10 @@
       <c r="C8" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="63"/>
+      <c r="D8" s="61"/>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="57" t="s">
         <v>62</v>
       </c>
       <c r="B9" s="33"/>
@@ -2086,26 +2078,26 @@
       <c r="D13" s="27"/>
     </row>
     <row r="15" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A15" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="66"/>
+      <c r="A15" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="67"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="69"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="67"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="69"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="67"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="70"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="72"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2157,11 +2149,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="48" customHeight="1" thickTop="1">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="54" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="49"/>
-      <c r="C2" s="58"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="44"/>
       <c r="E2" s="54"/>
       <c r="F2" s="50"/>
@@ -2179,7 +2171,7 @@
       <c r="B4" s="52"/>
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
-      <c r="E4" s="55"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="52"/>
     </row>
     <row r="5" spans="1:6" ht="253.5">
@@ -2187,19 +2179,19 @@
         <v>61</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2221,36 +2213,36 @@
     </row>
     <row r="9" spans="1:6" ht="14.25" customHeight="1">
       <c r="A9" s="6"/>
-      <c r="B9" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="75"/>
+      <c r="B9" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="72"/>
+      <c r="D9" s="73"/>
       <c r="F9" s="46"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="78"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
       <c r="F10" s="46"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="B11" s="76"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="76"/>
       <c r="F11" s="46"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="76"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="78"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
       <c r="F12" s="46"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="B13" s="79"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="81"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="79"/>
       <c r="F13" s="46"/>
     </row>
     <row r="14" spans="1:6">
@@ -2300,7 +2292,7 @@
       <c r="C1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="55" t="s">
         <v>47</v>
       </c>
       <c r="E1" s="15" t="s">
@@ -2324,8 +2316,8 @@
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" thickTop="1">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="11"/>
       <c r="D2" s="42"/>
       <c r="E2" s="11"/>
@@ -2337,8 +2329,8 @@
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="11"/>
       <c r="D3" s="42"/>
       <c r="E3" s="11"/>
@@ -2350,8 +2342,8 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="11"/>
       <c r="D4" s="42"/>
       <c r="E4" s="11"/>
@@ -2363,8 +2355,8 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="11"/>
       <c r="D5" s="42"/>
       <c r="E5" s="11"/>
@@ -2376,8 +2368,8 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="11"/>
       <c r="D6" s="42"/>
       <c r="E6" s="11"/>
@@ -2389,8 +2381,8 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="11"/>
       <c r="D7" s="42"/>
       <c r="E7" s="11"/>
@@ -2402,8 +2394,8 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="11"/>
       <c r="D8" s="42"/>
       <c r="E8" s="11"/>
@@ -2415,8 +2407,8 @@
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="11"/>
       <c r="D9" s="42"/>
       <c r="E9" s="11"/>
@@ -2428,8 +2420,8 @@
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="11"/>
       <c r="D10" s="42"/>
       <c r="E10" s="11"/>
@@ -2441,8 +2433,8 @@
       <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="11"/>
       <c r="D11" s="42"/>
       <c r="E11" s="11"/>
@@ -2454,8 +2446,8 @@
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="58"/>
       <c r="C12" s="11"/>
       <c r="D12" s="42"/>
       <c r="E12" s="11"/>
@@ -2467,8 +2459,8 @@
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="11"/>
       <c r="D13" s="42"/>
       <c r="E13" s="11"/>
@@ -2480,8 +2472,8 @@
       <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="60"/>
-      <c r="B14" s="60"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="11"/>
       <c r="D14" s="42"/>
       <c r="E14" s="11"/>
@@ -2493,8 +2485,8 @@
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="11"/>
       <c r="D15" s="42"/>
       <c r="E15" s="11"/>
@@ -2506,8 +2498,8 @@
       <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="60"/>
-      <c r="B16" s="60"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="11"/>
       <c r="D16" s="42"/>
       <c r="E16" s="12"/>
@@ -2535,34 +2527,34 @@
     </row>
     <row r="18" spans="1:11" s="39" customFormat="1" ht="165" customHeight="1">
       <c r="A18" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="37" t="s">
+      <c r="F18" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="G18" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="36" t="s">
         <v>66</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="H18" s="36" t="s">
-        <v>67</v>
       </c>
       <c r="I18" s="36" t="s">
         <v>40</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K18" s="38"/>
     </row>
@@ -2575,48 +2567,48 @@
       <c r="K20" s="18"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B21" s="82" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="84"/>
+      <c r="B21" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="82"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="B22" s="85"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="87"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="85"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="B23" s="85"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="87"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="85"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="B24" s="85"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="87"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="85"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="B25" s="85"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="87"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="85"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="B26" s="85"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="87"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="85"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="B27" s="88"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="90"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="88"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/chiloPro/template-series/structure-books.xlsx
+++ b/chiloPro/template-series/structure-books.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chilo-producer\chiloPro\template-series\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHiLO-Producer_pri\chiloPro\template-series\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16635" windowHeight="7785"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21795" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="series-information" sheetId="37" r:id="rId1"/>
@@ -254,8 +254,380 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
+    <t>表紙画像
+―――――――――――――
+表紙画像のファイル名（表紙画像が無い場合は空白にしてください）</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>identifier</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>revised</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>改訂版発行日</t>
+    <rPh sb="0" eb="3">
+      <t>カイテイバン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ハッコウビ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>vol-1</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>video-id</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>書籍の言語</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>* 必須</t>
+    <rPh sb="2" eb="4">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>* 必須
+* 「Copyright」ページに挿入されます。記載しない場合は、項目自体が表示されません。</t>
+    <rPh sb="2" eb="4">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CHiLO Bookのシリーズ名</t>
+    <rPh sb="15" eb="16">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>初版発行日</t>
+    <rPh sb="0" eb="2">
+      <t>ショハン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ハッコウビ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>* 「はじめにお読みください」セクションの「シリーズの紹介」ページに挿入されます。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>* 「シリーズの紹介」ページのシリーズの紹介文の下に挿入されます。</t>
+    <rPh sb="20" eb="22">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>* 各セクションの内表紙画像として使用されます。</t>
+    <rPh sb="2" eb="3">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウシ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>著者名</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>section（必須）</t>
+    <rPh sb="8" eb="10">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>topic</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>structure-books.xlsxのバージョン</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>（必須）巻数
+──────
+「vol-数字」
+の形式で順に記載します。</t>
+    <rPh sb="1" eb="3">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サッスウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>series-name</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CHiLO BookのユニークID。
+──────────────────
+content.opfに設定されます。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>各CHiLO Bookの概要
+────────────
+「はじめにお読みください」セクションの「ブック概要」に挿入されます。</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>セクションタイトル
+────────</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Javascriptのファイル名
+─────
+ページに組み込むJavascriptのファイル名を記入してください。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ページタイプ
+──────
+ページのタイプ
+document
+…ビデオ解説ページ
+test
+…クイズページ
+小文字で入力してください。</t>
+    <rPh sb="35" eb="37">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="54" eb="57">
+      <t>コモジ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SNSのURL
+────────────
+Facebook、Twitter、Moodleフォーラムなど、任意のSNSを学習コミュニティとして指定できます。
+記載しない場合は、コミュニティアイコンが表示されません。</t>
+    <rPh sb="52" eb="54">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>* 必須　authors.xlsxのシート名と一致させてください。</t>
+    <rPh sb="2" eb="4">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・ シリーズに関する情報を記載するシートです。
+・ 色のついているセルは必須項目です。
+・ 変更してはいけないセルに保護がかかっています。シートの保護解除のパスワードはつけていません。</t>
+  </si>
+  <si>
+    <t>・ シリーズの各ブックに関する情報を記載するシートです。
+・ 色のついているセルは必須項目です。
+・ 制作するブックの冊数分だけ、行を挿入して必要事項を記載ください。
+・ 変更してはいけないセルに保護がかかっています。シートの保護解除のパスワードはつけていません。</t>
+  </si>
+  <si>
+    <t>コミュニティの表示
+──────────
+ページのコミュニティリンクボタンの表示非表示を指定できます。リンクボタンの表示する場合は、「TRUE」とします。book-listシートのcommunity-url項目を記載した場合のみ有効です。</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>解説ビデオサムネイルのファイル名
+────────────
+page-type項目を「document」とした場合のみ有効です。</t>
+    <rPh sb="0" eb="2">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>解説文のファイル名
+─────
+page-type項目を「document」とした場合のみ有効です。</t>
+    <rPh sb="0" eb="2">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・ ブックの解説ページと確認テストページに関するシートです。
+・ 色のついているセルは必須項目です。
+・ page-typeを指定して、行を追加するとCHiLO Bookのページが追加されます。
+・ ブックの数だけ書籍構成シートをコピーして、1冊のブックにつき1シート作成します。
+・ シート名は、book-listの「vol」の列と一致させてください。
+・変更してはいけないセルに保護がかかっています。シートの保護解除のパスワードはつけていません。
+</t>
+  </si>
+  <si>
+    <t>トピックタイトル
+───────
+page-type項目を「document」とした場合のみ有効です。「test」とした場合は記載する必要がありません。</t>
+    <rPh sb="63" eb="65">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CCのライセンス
+────────
+CCライセンスでない場合は記載する必要がありません。</t>
+    <rPh sb="28" eb="30">
+      <t>ナイバアイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CHiLO Bookのタイトル
+────────────
+実際の書先タイトルは、
+「series-name 第n章 book-title」
+となります。series-nameは、series-informationシートのseries-name項目です。
+例）はじめての情報ネットワークI 第1章インターネットの歴史とビットの復習
+この書籍タイトルは、content.opfに設定されるほか、「Copyright」ページに挿入されます。</t>
+    <rPh sb="10" eb="11">
+      <t>ホンンオ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>あくまでも、structure-books.xlsxファイルの管理用であり、CHiLO Bookの書き出しには使われていません。ご自由に設定ください。</t>
+  </si>
+  <si>
+    <t>* 必須　ja, enなど、言語をRFC 5646形式で記載します。</t>
+    <rPh sb="2" eb="4">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
     <r>
-      <t>c</t>
+      <t>b</t>
     </r>
     <r>
       <rPr>
@@ -266,196 +638,15 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>over</t>
+      <t>ook-cover</t>
     </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>表紙画像
-―――――――――――――
-表紙画像のファイル名（表紙画像が無い場合は空白にしてください）</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウシ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>identifier</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>revised</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>改訂版発行日</t>
-    <rPh sb="0" eb="3">
-      <t>カイテイバン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ハッコウビ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>vol-1</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>video-id</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>書籍の言語</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>* 必須</t>
-    <rPh sb="2" eb="4">
-      <t>ヒッス</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>* 必須
-* 「Copyright」ページに挿入されます。記載しない場合は、項目自体が表示されません。</t>
-    <rPh sb="2" eb="4">
-      <t>ヒッス</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ソウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>CHiLO Bookのシリーズ名</t>
-    <rPh sb="15" eb="16">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>初版発行日</t>
-    <rPh sb="0" eb="2">
-      <t>ショハン</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ハッコウビ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>* 「はじめにお読みください」セクションの「シリーズの紹介」ページに挿入されます。</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>* 「シリーズの紹介」ページのシリーズの紹介文の下に挿入されます。</t>
-    <rPh sb="20" eb="22">
-      <t>ショウカイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>シタ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>* 各セクションの内表紙画像として使用されます。</t>
-    <rPh sb="2" eb="3">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ウチ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウシ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>著者名</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>section（必須）</t>
-    <rPh sb="8" eb="10">
-      <t>ヒッス</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>topic</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>structure-books.xlsxのバージョン</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>（必須）巻数
-──────
-「vol-数字」
-の形式で順に記載します。</t>
-    <rPh sb="1" eb="3">
-      <t>ヒッス</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>サッスウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>series-name</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>各CHiLO Bookの概要
-────────────
-「はじめにお読みください」セクションの「ブック概要」に挿入されます。</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ソウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>セクションタイトル
-────────</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>ページのメインコンテンツ
 ────────────
 page-typeによって指定するメインコンテンツが違います。
-document…解説ビデオのファイル名
+document…解説ビデオまたは音声のファイル名
 test…MoodleクイズのURL</t>
     <rPh sb="39" eb="41">
       <t>シテイ</t>
@@ -466,200 +657,12 @@
     <rPh sb="67" eb="69">
       <t>カイセツ</t>
     </rPh>
-    <rPh sb="77" eb="78">
+    <rPh sb="75" eb="77">
+      <t>オンセイ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Javascriptのファイル名
-─────
-ページに組み込むJavascriptのファイル名を記入してください。</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ページタイプ
-──────
-ページのタイプ
-document
-…ビデオ解説ページ
-test
-…クイズページ
-小文字で入力してください。</t>
-    <rPh sb="35" eb="37">
-      <t>カイセツ</t>
-    </rPh>
-    <rPh sb="54" eb="57">
-      <t>コモジ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>SNSのURL
-────────────
-Facebook、Twitter、Moodleフォーラムなど、任意のSNSを学習コミュニティとして指定できます。
-記載しない場合は、コミュニティアイコンが表示されません。</t>
-    <rPh sb="52" eb="54">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>* 必須　authors.xlsxのシート名と一致させてください。</t>
-    <rPh sb="2" eb="4">
-      <t>ヒッス</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>・ シリーズに関する情報を記載するシートです。
-・ 色のついているセルは必須項目です。
-・ 変更してはいけないセルに保護がかかっています。シートの保護解除のパスワードはつけていません。</t>
-  </si>
-  <si>
-    <t>・ シリーズの各ブックに関する情報を記載するシートです。
-・ 色のついているセルは必須項目です。
-・ 制作するブックの冊数分だけ、行を挿入して必要事項を記載ください。
-・ 変更してはいけないセルに保護がかかっています。シートの保護解除のパスワードはつけていません。</t>
-  </si>
-  <si>
-    <t>コミュニティの表示
-──────────
-ページのコミュニティリンクボタンの表示非表示を指定できます。リンクボタンの表示する場合は、「TRUE」とします。book-listシートのcommunity-url項目を記載した場合のみ有効です。</t>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>解説ビデオサムネイルのファイル名
-────────────
-page-type項目を「document」とした場合のみ有効です。</t>
-    <rPh sb="0" eb="2">
-      <t>カイセツ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>解説文のファイル名
-─────
-page-type項目を「document」とした場合のみ有効です。</t>
-    <rPh sb="0" eb="2">
-      <t>カイセツ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t xml:space="preserve">・ ブックの解説ページと確認テストページに関するシートです。
-・ 色のついているセルは必須項目です。
-・ page-typeを指定して、行を追加するとCHiLO Bookのページが追加されます。
-・ ブックの数だけ書籍構成シートをコピーして、1冊のブックにつき1シート作成します。
-・ シート名は、book-listの「vol」の列と一致させてください。
-・変更してはいけないセルに保護がかかっています。シートの保護解除のパスワードはつけていません。
-</t>
-  </si>
-  <si>
-    <t>トピックタイトル
-───────
-page-type項目を「document」とした場合のみ有効です。「test」とした場合は記載する必要がありません。</t>
-    <rPh sb="63" eb="65">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>CCのライセンス
-────────
-CCライセンスでない場合は記載する必要がありません。</t>
-    <rPh sb="28" eb="30">
-      <t>ナイバアイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>CHiLO Bookのタイトル
-────────────
-実際の書先タイトルは、
-「series-name 第n章 book-title」
-となります。series-nameは、series-informationシートのseries-name項目です。
-例）はじめての情報ネットワークI 第1章インターネットの歴史とビットの復習
-この書籍タイトルは、content.opfに設定されるほか、「Copyright」ページに挿入されます。</t>
-    <rPh sb="10" eb="11">
-      <t>ホンンオ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>あくまでも、structure-books.xlsxファイルの管理用であり、CHiLO Bookの書き出しには使われていません。ご自由に設定ください。</t>
-  </si>
-  <si>
-    <t>* 必須　ja, enなど、言語をRFC 5646形式で記載します。</t>
-    <rPh sb="2" eb="4">
-      <t>ヒッス</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ゲンゴ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>（必須）CHiLO BookのユニークID。
-──────────────────
-content.opfに設定されます。</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1277,7 +1280,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1463,6 +1466,14 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1480,6 +1491,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1940,10 +1954,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21" customHeight="1">
@@ -1952,10 +1966,10 @@
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
@@ -1964,10 +1978,10 @@
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
@@ -1978,8 +1992,8 @@
       <c r="C4" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="59" t="s">
-        <v>51</v>
+      <c r="D4" s="62" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
@@ -1990,7 +2004,7 @@
       <c r="C5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="60"/>
+      <c r="D5" s="63"/>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="31" t="s">
@@ -1998,19 +2012,19 @@
       </c>
       <c r="B6" s="53"/>
       <c r="C6" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="60"/>
+        <v>52</v>
+      </c>
+      <c r="D6" s="63"/>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
       <c r="A7" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="34"/>
       <c r="C7" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="60"/>
+        <v>44</v>
+      </c>
+      <c r="D7" s="63"/>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
       <c r="A8" s="31" t="s">
@@ -2020,18 +2034,18 @@
       <c r="C8" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="61"/>
+      <c r="D8" s="64"/>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
-      <c r="A9" s="57" t="s">
-        <v>62</v>
+      <c r="A9" s="59" t="s">
+        <v>61</v>
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="80.099999999999994" customHeight="1">
@@ -2043,7 +2057,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1">
@@ -2055,7 +2069,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21" customHeight="1">
@@ -2067,7 +2081,7 @@
         <v>37</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2078,26 +2092,26 @@
       <c r="D13" s="27"/>
     </row>
     <row r="15" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A15" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="64"/>
+      <c r="A15" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="66"/>
+      <c r="C15" s="67"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="65"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="67"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="70"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="65"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="67"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="70"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="68"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="70"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2138,22 +2152,22 @@
       <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>41</v>
+      <c r="D1" s="61" t="s">
+        <v>80</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="48" customHeight="1" thickTop="1">
-      <c r="A2" s="54" t="s">
-        <v>46</v>
+      <c r="A2" s="56" t="s">
+        <v>45</v>
       </c>
       <c r="B2" s="49"/>
-      <c r="C2" s="56"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="44"/>
       <c r="E2" s="54"/>
       <c r="F2" s="50"/>
@@ -2171,27 +2185,27 @@
       <c r="B4" s="52"/>
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
-      <c r="E4" s="51"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="52"/>
     </row>
     <row r="5" spans="1:6" ht="253.5">
       <c r="A5" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>63</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2213,36 +2227,36 @@
     </row>
     <row r="9" spans="1:6" ht="14.25" customHeight="1">
       <c r="A9" s="6"/>
-      <c r="B9" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="73"/>
+      <c r="B9" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
       <c r="F9" s="46"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="76"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="79"/>
       <c r="F10" s="46"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="B11" s="74"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="76"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="79"/>
       <c r="F11" s="46"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="74"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="76"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="79"/>
       <c r="F12" s="46"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="B13" s="77"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="79"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="82"/>
       <c r="F13" s="46"/>
     </row>
     <row r="14" spans="1:6">
@@ -2287,13 +2301,13 @@
         <v>8</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>47</v>
+      <c r="D1" s="57" t="s">
+        <v>46</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>1</v>
@@ -2308,7 +2322,7 @@
         <v>4</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J1" s="15" t="s">
         <v>5</v>
@@ -2316,8 +2330,8 @@
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" thickTop="1">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="11"/>
       <c r="D2" s="42"/>
       <c r="E2" s="11"/>
@@ -2329,8 +2343,8 @@
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="11"/>
       <c r="D3" s="42"/>
       <c r="E3" s="11"/>
@@ -2342,8 +2356,8 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="11"/>
       <c r="D4" s="42"/>
       <c r="E4" s="11"/>
@@ -2355,8 +2369,8 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="11"/>
       <c r="D5" s="42"/>
       <c r="E5" s="11"/>
@@ -2368,8 +2382,8 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="11"/>
       <c r="D6" s="42"/>
       <c r="E6" s="11"/>
@@ -2381,8 +2395,8 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="11"/>
       <c r="D7" s="42"/>
       <c r="E7" s="11"/>
@@ -2394,8 +2408,8 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="58"/>
-      <c r="B8" s="58"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="11"/>
       <c r="D8" s="42"/>
       <c r="E8" s="11"/>
@@ -2407,8 +2421,8 @@
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="58"/>
-      <c r="B9" s="58"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="11"/>
       <c r="D9" s="42"/>
       <c r="E9" s="11"/>
@@ -2420,8 +2434,8 @@
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="58"/>
-      <c r="B10" s="58"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="11"/>
       <c r="D10" s="42"/>
       <c r="E10" s="11"/>
@@ -2433,8 +2447,8 @@
       <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="58"/>
-      <c r="B11" s="58"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="11"/>
       <c r="D11" s="42"/>
       <c r="E11" s="11"/>
@@ -2446,8 +2460,8 @@
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="58"/>
-      <c r="B12" s="58"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="11"/>
       <c r="D12" s="42"/>
       <c r="E12" s="11"/>
@@ -2459,8 +2473,8 @@
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="58"/>
-      <c r="B13" s="58"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="11"/>
       <c r="D13" s="42"/>
       <c r="E13" s="11"/>
@@ -2472,8 +2486,8 @@
       <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="58"/>
-      <c r="B14" s="58"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="11"/>
       <c r="D14" s="42"/>
       <c r="E14" s="11"/>
@@ -2485,8 +2499,8 @@
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="58"/>
-      <c r="B15" s="58"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="11"/>
       <c r="D15" s="42"/>
       <c r="E15" s="11"/>
@@ -2498,8 +2512,8 @@
       <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="58"/>
-      <c r="B16" s="58"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="11"/>
       <c r="D16" s="42"/>
       <c r="E16" s="12"/>
@@ -2527,34 +2541,34 @@
     </row>
     <row r="18" spans="1:11" s="39" customFormat="1" ht="165" customHeight="1">
       <c r="A18" s="36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="36" t="s">
         <v>64</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="G18" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="36" t="s">
         <v>65</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="36" t="s">
-        <v>66</v>
       </c>
       <c r="I18" s="36" t="s">
         <v>40</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K18" s="38"/>
     </row>
@@ -2567,48 +2581,48 @@
       <c r="K20" s="18"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B21" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="82"/>
+      <c r="B21" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="85"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="B22" s="83"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="85"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="88"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="B23" s="83"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="85"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="88"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="B24" s="83"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="85"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="88"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="B25" s="83"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="85"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="88"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="B26" s="83"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="85"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="88"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="B27" s="86"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="88"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="91"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/chiloPro/template-series/structure-books.xlsx
+++ b/chiloPro/template-series/structure-books.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHiLO-Producer_pri\chiloPro\template-series\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitsuhashi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
   <si>
     <t>cover</t>
     <phoneticPr fontId="4"/>
@@ -172,10 +172,6 @@
   </si>
   <si>
     <t>language</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>creator</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -665,6 +661,177 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uthor</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>editor</t>
+  </si>
+  <si>
+    <t>published</t>
+  </si>
+  <si>
+    <t>revised</t>
+  </si>
+  <si>
+    <t>rights</t>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nside-cover</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>章ごとに変更するシリーズ情報
+────────────
+[series-information]の情報のうち、章ごとに変更したい箇所があればここに記入します。
+（[series-information]と同じ情報を使いたい場合は、空白のままにしてください）</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>章ごとに変更する内表紙画像
+────────────
+[series-information]の内表紙画像を章ごとに変更したい箇所が荒れれば、画像を vol-n/imagesに保存し、ファイル名をここに記入します。
+（[series-information]と同じ内表紙を使いたい場合は、空白のままにしてください）</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ウチ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒョウシ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>ウチ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>ヒョウシ</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -673,7 +840,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -810,8 +977,24 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -842,8 +1025,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1100,6 +1289,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1280,7 +1480,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1296,9 +1496,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1350,9 +1547,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1362,9 +1556,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1492,7 +1683,16 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1593,6 +1793,30 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -1942,158 +2166,158 @@
     <col min="1" max="1" width="21.125" customWidth="1"/>
     <col min="2" max="2" width="55.625" customWidth="1"/>
     <col min="3" max="3" width="46.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="75.625" style="22" customWidth="1"/>
     <col min="5" max="5" width="48.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="39.950000000000003" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="29">
+        <v>1</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="21" customHeight="1">
+      <c r="A2" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21" customHeight="1">
+      <c r="A3" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="21" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21" customHeight="1">
+      <c r="A5" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="63"/>
+    </row>
+    <row r="6" spans="1:4" ht="21" customHeight="1">
+      <c r="A6" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="50"/>
+      <c r="C6" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="63"/>
+    </row>
+    <row r="7" spans="1:4" ht="21" customHeight="1">
+      <c r="A7" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="63"/>
+    </row>
+    <row r="8" spans="1:4" ht="21" customHeight="1">
+      <c r="A8" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="64"/>
+    </row>
+    <row r="9" spans="1:4" ht="21" customHeight="1">
+      <c r="A9" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="80.099999999999994" customHeight="1">
+      <c r="A10" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="32"/>
+      <c r="C10" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21" customHeight="1">
+      <c r="A11" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="21" customHeight="1">
+      <c r="A12" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="32">
-        <v>1</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="21" customHeight="1">
-      <c r="A2" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="21" customHeight="1">
-      <c r="A3" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="21" customHeight="1">
-      <c r="A4" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="62" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="63"/>
-    </row>
-    <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="63"/>
-    </row>
-    <row r="7" spans="1:4" ht="21" customHeight="1">
-      <c r="A7" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="63"/>
-    </row>
-    <row r="8" spans="1:4" ht="21" customHeight="1">
-      <c r="A8" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="64"/>
-    </row>
-    <row r="9" spans="1:4" ht="21" customHeight="1">
-      <c r="A9" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="80.099999999999994" customHeight="1">
-      <c r="A10" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="21" customHeight="1">
-      <c r="A11" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="21" customHeight="1">
-      <c r="A12" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
     </row>
     <row r="15" spans="1:4" ht="13.5" customHeight="1">
       <c r="A15" s="65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15" s="66"/>
       <c r="C15" s="67"/>
@@ -2114,6 +2338,7 @@
       <c r="C18" s="73"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="2">
     <mergeCell ref="D4:D8"/>
     <mergeCell ref="A15:C18"/>
@@ -2127,7 +2352,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2139,133 +2364,209 @@
     <col min="4" max="4" width="32.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="43.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="37.875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="2"/>
+    <col min="7" max="7" width="8.375" style="61" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.75" style="61" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="61" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.625" style="61" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.5" style="61" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.625" style="61" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="42" style="61" customWidth="1"/>
+    <col min="16" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25" thickBot="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:15" ht="20.25" thickBot="1">
+      <c r="A1" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="D1" s="94" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="92" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="48" customHeight="1" thickTop="1">
-      <c r="A2" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="50"/>
-    </row>
-    <row r="3" spans="1:6" ht="48" customHeight="1">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="50"/>
-    </row>
-    <row r="4" spans="1:6" ht="48" customHeight="1">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="52"/>
-    </row>
-    <row r="5" spans="1:6" ht="253.5">
-      <c r="A5" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="20" t="s">
+      <c r="G1" s="95" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="95" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="95" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="95" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="95" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" s="95" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" s="95" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="95" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="48" customHeight="1" thickTop="1">
+      <c r="A2" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+    </row>
+    <row r="3" spans="1:15" ht="48" customHeight="1">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+    </row>
+    <row r="4" spans="1:15" ht="48" customHeight="1">
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+    </row>
+    <row r="5" spans="1:15" ht="253.5">
+      <c r="A5" s="96" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="F6" s="40"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A9" s="6"/>
+      <c r="D5" s="96" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="96" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="96" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="97" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="99" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="F6" s="37"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" ht="14.25" customHeight="1">
+      <c r="A9" s="5"/>
       <c r="B9" s="74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="75"/>
       <c r="D9" s="76"/>
-      <c r="F9" s="46"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="6"/>
+      <c r="F9" s="43"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="5"/>
       <c r="B10" s="77"/>
       <c r="C10" s="78"/>
       <c r="D10" s="79"/>
-      <c r="F10" s="46"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10" s="43"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="B11" s="77"/>
       <c r="C11" s="78"/>
       <c r="D11" s="79"/>
-      <c r="F11" s="46"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11" s="43"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="B12" s="77"/>
       <c r="C12" s="78"/>
       <c r="D12" s="79"/>
-      <c r="F12" s="46"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12" s="43"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="B13" s="80"/>
       <c r="C13" s="81"/>
       <c r="D13" s="82"/>
-      <c r="F13" s="46"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="F14" s="47"/>
+      <c r="F13" s="43"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="F14" s="44"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="1">
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="2">
     <mergeCell ref="B9:D13"/>
+    <mergeCell ref="G5:N5"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2282,307 +2583,307 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="19" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="25" style="9" customWidth="1"/>
-    <col min="5" max="5" width="40.625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="30.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="25" style="8" customWidth="1"/>
-    <col min="9" max="9" width="37.5" style="8" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="21.625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="19" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="25" style="8" customWidth="1"/>
+    <col min="5" max="5" width="40.625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="30.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="25" style="7" customWidth="1"/>
+    <col min="9" max="9" width="37.5" style="7" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="7" customWidth="1"/>
     <col min="11" max="11" width="8.875" style="4"/>
-    <col min="12" max="16384" width="8.875" style="8"/>
+    <col min="12" max="16384" width="8.875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" customFormat="1" ht="20.25" thickBot="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" thickTop="1">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="10"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="10"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="10"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="10"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="10"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="10"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="10"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="10"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="10"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="10"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="10"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="10"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="60"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="10"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="10"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="9"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="60"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="10"/>
-    </row>
-    <row r="17" spans="1:11" s="19" customFormat="1">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="1:11" s="18" customFormat="1">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
       <c r="K17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="39" customFormat="1" ht="165" customHeight="1">
-      <c r="A18" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="36" t="s">
+    <row r="18" spans="1:11" s="36" customFormat="1" ht="165" customHeight="1">
+      <c r="A18" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="I18" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="H18" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="J18" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="K18" s="38"/>
-    </row>
-    <row r="19" spans="1:11" s="16" customFormat="1">
-      <c r="D19" s="17"/>
-      <c r="K19" s="18"/>
-    </row>
-    <row r="20" spans="1:11" s="16" customFormat="1">
-      <c r="D20" s="17"/>
-      <c r="K20" s="18"/>
+      <c r="K18" s="35"/>
+    </row>
+    <row r="19" spans="1:11" s="15" customFormat="1">
+      <c r="D19" s="16"/>
+      <c r="K19" s="17"/>
+    </row>
+    <row r="20" spans="1:11" s="15" customFormat="1">
+      <c r="D20" s="16"/>
+      <c r="K20" s="17"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1">
       <c r="B21" s="83" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21" s="84"/>
       <c r="D21" s="84"/>
@@ -2625,7 +2926,7 @@
       <c r="E27" s="91"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="1">
     <mergeCell ref="B21:E27"/>
   </mergeCells>
@@ -2674,68 +2975,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.5" thickTop="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>

--- a/chiloPro/template-series/structure-books.xlsx
+++ b/chiloPro/template-series/structure-books.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitsuhashi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHiLO-Producer_pri\chiloPro\template-series\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
   <si>
     <t>cover</t>
     <phoneticPr fontId="4"/>
@@ -829,6 +829,74 @@
     </rPh>
     <rPh sb="144" eb="146">
       <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>begin</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>動画分割の開始位置
+─────
+動画をページ毎に分割する場合の、開始位置を秒数で指定します。</t>
+    <rPh sb="0" eb="2">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブンカツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ブンカツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>動画分割の終了位置
+─────
+動画をページ分割する場合の、終了位置を秒数で指定します。</t>
+    <rPh sb="0" eb="2">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュウリョウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1695,6 +1763,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1758,6 +1844,12 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1793,30 +1885,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -2216,7 +2284,7 @@
       <c r="C4" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="68" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2228,7 +2296,7 @@
       <c r="C5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="63"/>
+      <c r="D5" s="69"/>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="28" t="s">
@@ -2238,7 +2306,7 @@
       <c r="C6" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="63"/>
+      <c r="D6" s="69"/>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
       <c r="A7" s="28" t="s">
@@ -2248,7 +2316,7 @@
       <c r="C7" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="63"/>
+      <c r="D7" s="69"/>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
       <c r="A8" s="28" t="s">
@@ -2258,7 +2326,7 @@
       <c r="C8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="64"/>
+      <c r="D8" s="70"/>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
       <c r="A9" s="56" t="s">
@@ -2316,26 +2384,26 @@
       <c r="D13" s="24"/>
     </row>
     <row r="15" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="67"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="73"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="68"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="70"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="76"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="68"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="70"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="76"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="71"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="73"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="79"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -2376,49 +2444,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25" thickBot="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="93" t="s">
+      <c r="E1" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="95" t="s">
+      <c r="H1" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="95" t="s">
+      <c r="I1" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="95" t="s">
+      <c r="J1" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="95" t="s">
+      <c r="K1" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="95" t="s">
+      <c r="L1" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="95" t="s">
+      <c r="M1" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="N1" s="95" t="s">
+      <c r="N1" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="O1" s="95" t="s">
+      <c r="O1" s="65" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2476,35 +2544,35 @@
       <c r="O4" s="58"/>
     </row>
     <row r="5" spans="1:15" ht="253.5">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="96" t="s">
+      <c r="D5" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="96" t="s">
+      <c r="E5" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="96" t="s">
+      <c r="F5" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="97" t="s">
+      <c r="G5" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="99" t="s">
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="67" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2527,36 +2595,36 @@
     </row>
     <row r="9" spans="1:15" ht="14.25" customHeight="1">
       <c r="A9" s="5"/>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="76"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="82"/>
       <c r="F9" s="43"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="5"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="79"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="85"/>
       <c r="F10" s="43"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="B11" s="77"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="79"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="85"/>
       <c r="F11" s="43"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="B12" s="77"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="79"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
       <c r="F12" s="43"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="B13" s="80"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="82"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="88"/>
       <c r="F13" s="43"/>
     </row>
     <row r="14" spans="1:15">
@@ -2577,7 +2645,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2591,13 +2659,14 @@
     <col min="6" max="6" width="30.625" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.125" style="7" customWidth="1"/>
     <col min="8" max="8" width="25" style="7" customWidth="1"/>
-    <col min="9" max="9" width="37.5" style="7" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="37.5" style="7" customWidth="1"/>
     <col min="10" max="10" width="17.875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="4"/>
-    <col min="12" max="16384" width="8.875" style="7"/>
+    <col min="11" max="12" width="37.5" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.875" style="4"/>
+    <col min="14" max="16384" width="8.875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" ht="20.25" thickBot="1">
+    <row r="1" spans="1:13" customFormat="1" ht="20.25" thickBot="1">
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
@@ -2628,9 +2697,15 @@
       <c r="J1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" ht="20.25" thickTop="1">
+      <c r="K1" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" ht="20.25" thickTop="1">
       <c r="A2" s="57"/>
       <c r="B2" s="57"/>
       <c r="C2" s="10"/>
@@ -2641,9 +2716,11 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="57"/>
       <c r="B3" s="57"/>
       <c r="C3" s="10"/>
@@ -2654,9 +2731,11 @@
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="57"/>
       <c r="B4" s="57"/>
       <c r="C4" s="10"/>
@@ -2667,9 +2746,11 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="57"/>
       <c r="B5" s="57"/>
       <c r="C5" s="10"/>
@@ -2680,9 +2761,11 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="57"/>
       <c r="B6" s="57"/>
       <c r="C6" s="10"/>
@@ -2693,9 +2776,11 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="57"/>
       <c r="B7" s="57"/>
       <c r="C7" s="10"/>
@@ -2706,9 +2791,11 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="57"/>
       <c r="B8" s="57"/>
       <c r="C8" s="10"/>
@@ -2719,9 +2806,11 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="57"/>
       <c r="B9" s="57"/>
       <c r="C9" s="10"/>
@@ -2732,9 +2821,11 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="9"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="57"/>
       <c r="B10" s="57"/>
       <c r="C10" s="10"/>
@@ -2745,9 +2836,11 @@
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="57"/>
       <c r="B11" s="57"/>
       <c r="C11" s="10"/>
@@ -2758,9 +2851,11 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="57"/>
       <c r="B12" s="57"/>
       <c r="C12" s="10"/>
@@ -2771,9 +2866,11 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="57"/>
       <c r="B13" s="57"/>
       <c r="C13" s="10"/>
@@ -2784,9 +2881,11 @@
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
-      <c r="K13" s="9"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="57"/>
       <c r="B14" s="57"/>
       <c r="C14" s="10"/>
@@ -2797,9 +2896,11 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
-      <c r="K14" s="9"/>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="57"/>
       <c r="B15" s="57"/>
       <c r="C15" s="10"/>
@@ -2810,9 +2911,11 @@
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
-      <c r="K15" s="9"/>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="57"/>
       <c r="B16" s="57"/>
       <c r="C16" s="10"/>
@@ -2823,9 +2926,11 @@
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
-      <c r="K16" s="9"/>
-    </row>
-    <row r="17" spans="1:11" s="18" customFormat="1">
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" spans="1:13" s="18" customFormat="1">
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -2836,11 +2941,13 @@
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="36" customFormat="1" ht="165" customHeight="1">
+    <row r="18" spans="1:13" s="36" customFormat="1" ht="165" customHeight="1">
       <c r="A18" s="33" t="s">
         <v>65</v>
       </c>
@@ -2871,59 +2978,65 @@
       <c r="J18" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="K18" s="35"/>
-    </row>
-    <row r="19" spans="1:11" s="15" customFormat="1">
+      <c r="K18" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="L18" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="M18" s="35"/>
+    </row>
+    <row r="19" spans="1:13" s="15" customFormat="1">
       <c r="D19" s="16"/>
-      <c r="K19" s="17"/>
-    </row>
-    <row r="20" spans="1:11" s="15" customFormat="1">
+      <c r="M19" s="17"/>
+    </row>
+    <row r="20" spans="1:13" s="15" customFormat="1">
       <c r="D20" s="16"/>
-      <c r="K20" s="17"/>
-    </row>
-    <row r="21" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B21" s="83" t="s">
+      <c r="M20" s="17"/>
+    </row>
+    <row r="21" spans="1:13" ht="14.25" customHeight="1">
+      <c r="B21" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="85"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="B22" s="86"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="88"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="B23" s="86"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="88"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="B24" s="86"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="88"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="B25" s="86"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="88"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="B26" s="86"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="88"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="B27" s="89"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="91"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="93"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="B22" s="94"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="96"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="B23" s="94"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="96"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="B24" s="94"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="96"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="B25" s="94"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="96"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="B26" s="94"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="96"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="B27" s="97"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="99"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/chiloPro/template-series/structure-books.xlsx
+++ b/chiloPro/template-series/structure-books.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHiLO-Producer_pri\chiloPro\template-series\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chilo-producer\chiloPro\template-series\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21795" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21795" windowHeight="7965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="series-information" sheetId="37" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
   <si>
     <t>cover</t>
     <phoneticPr fontId="4"/>
@@ -682,16 +682,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>publisher</t>
-  </si>
-  <si>
-    <t>editor</t>
-  </si>
-  <si>
     <t>published</t>
-  </si>
-  <si>
-    <t>revised</t>
   </si>
   <si>
     <t>rights</t>
@@ -898,6 +889,22 @@
     <rPh sb="30" eb="32">
       <t>シュウリョウ</t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>revised</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>publisher</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>editor</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1548,7 +1555,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1564,12 +1571,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <alignment vertical="center"/>
@@ -1673,9 +1674,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="37" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1687,78 +1685,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="37" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1815,33 +1757,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1885,6 +1800,93 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="37" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -2227,183 +2229,183 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="21.125" customWidth="1"/>
     <col min="2" max="2" width="55.625" customWidth="1"/>
     <col min="3" max="3" width="46.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="75.625" style="20" customWidth="1"/>
     <col min="5" max="5" width="48.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="39.950000000000003" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="29">
+      <c r="B1" s="27">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="24" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21" customHeight="1">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="24" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="27" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="24" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="27" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="50" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="27" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="69"/>
+      <c r="D5" s="51"/>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="27" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="69"/>
+      <c r="D6" s="51"/>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="27" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="69"/>
+      <c r="D7" s="51"/>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="27" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="70"/>
+      <c r="D8" s="52"/>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="27" t="s">
+      <c r="B9" s="28"/>
+      <c r="C9" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="24" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="80.099999999999994" customHeight="1">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="27" t="s">
+      <c r="B10" s="30"/>
+      <c r="C10" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="24" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="27" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="24" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21" customHeight="1">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="27" t="s">
+      <c r="B12" s="27"/>
+      <c r="C12" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="24" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
     </row>
     <row r="15" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="73"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="55"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="74"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="76"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="58"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="74"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="76"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="58"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="77"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="79"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="61"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -2422,7 +2424,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
   <cols>
@@ -2432,206 +2434,281 @@
     <col min="4" max="4" width="32.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="43.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="37.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.375" style="61" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="61" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.75" style="61" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="61" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.625" style="61" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.5" style="61" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.625" style="61" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="42" style="61" customWidth="1"/>
+    <col min="7" max="7" width="8.375" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="43" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.75" style="43" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="43" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.625" style="43" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.5" style="43" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.625" style="43" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="42" style="43" customWidth="1"/>
     <col min="16" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.25" thickBot="1">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:15" s="81" customFormat="1" ht="20.25" thickBot="1">
+      <c r="A1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="65" t="s">
+      <c r="G1" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="65" t="s">
+      <c r="M1" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="O1" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="65" t="s">
+    </row>
+    <row r="2" spans="1:15" s="81" customFormat="1" ht="48" customHeight="1" thickTop="1">
+      <c r="A2" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+    </row>
+    <row r="3" spans="1:15" s="81" customFormat="1" ht="48" customHeight="1">
+      <c r="A3" s="82"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+    </row>
+    <row r="4" spans="1:15" s="81" customFormat="1" ht="48" customHeight="1">
+      <c r="A4" s="85"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+    </row>
+    <row r="5" spans="1:15" s="81" customFormat="1" ht="253.5">
+      <c r="A5" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="N1" s="65" t="s">
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="O1" s="65" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="48" customHeight="1" thickTop="1">
-      <c r="A2" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-    </row>
-    <row r="3" spans="1:15" ht="48" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-    </row>
-    <row r="4" spans="1:15" ht="48" customHeight="1">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-    </row>
-    <row r="5" spans="1:15" ht="253.5">
-      <c r="A5" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="66" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="89" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="67" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="F6" s="37"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="80" t="s">
+    </row>
+    <row r="6" spans="1:15" s="81" customFormat="1">
+      <c r="A6" s="88"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+    </row>
+    <row r="7" spans="1:15" s="81" customFormat="1">
+      <c r="F7" s="90"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+    </row>
+    <row r="8" spans="1:15" s="81" customFormat="1">
+      <c r="A8" s="91"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+    </row>
+    <row r="9" spans="1:15" s="81" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A9" s="91"/>
+      <c r="B9" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="82"/>
-      <c r="F9" s="43"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="85"/>
-      <c r="F10" s="43"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="B11" s="83"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="85"/>
-      <c r="F11" s="43"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="83"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="85"/>
-      <c r="F12" s="43"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="B13" s="86"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="88"/>
-      <c r="F13" s="43"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="94"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+    </row>
+    <row r="10" spans="1:15" s="81" customFormat="1">
+      <c r="A10" s="91"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="98"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+    </row>
+    <row r="11" spans="1:15" s="81" customFormat="1">
+      <c r="B11" s="96"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="98"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="89"/>
+      <c r="O11" s="89"/>
+    </row>
+    <row r="12" spans="1:15" s="81" customFormat="1">
+      <c r="B12" s="96"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="98"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="89"/>
+    </row>
+    <row r="13" spans="1:15" s="81" customFormat="1">
+      <c r="B13" s="99"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="101"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="F14" s="44"/>
+      <c r="F14" s="38"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <protectedRanges>
+    <protectedRange sqref="A2:XFD4" name="範囲1"/>
+  </protectedRanges>
   <mergeCells count="2">
     <mergeCell ref="B9:D13"/>
     <mergeCell ref="G5:N5"/>
@@ -2651,392 +2728,392 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="19" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="25" style="8" customWidth="1"/>
-    <col min="5" max="5" width="40.625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="30.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="25" style="7" customWidth="1"/>
-    <col min="9" max="9" width="37.5" style="7" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="7" customWidth="1"/>
-    <col min="11" max="12" width="37.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="21.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="25" style="6" customWidth="1"/>
+    <col min="5" max="5" width="40.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="30.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="25" style="5" customWidth="1"/>
+    <col min="9" max="9" width="37.5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="5" customWidth="1"/>
+    <col min="11" max="12" width="37.5" style="5" customWidth="1"/>
     <col min="13" max="13" width="8.875" style="4"/>
-    <col min="14" max="16384" width="8.875" style="7"/>
+    <col min="14" max="16384" width="8.875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" customFormat="1" ht="20.25" thickBot="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>92</v>
+      <c r="K1" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="20.25" thickTop="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="9"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="9"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="9"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="57"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="9"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="57"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="9"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="7"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="57"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="9"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="57"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="9"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="7"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="57"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="9"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="7"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="57"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="9"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="7"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="57"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="9"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="57"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="9"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="7"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="57"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="9"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="57"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="9"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="57"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="9"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="7"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="57"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="9"/>
-    </row>
-    <row r="17" spans="1:13" s="18" customFormat="1">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:13" s="16" customFormat="1">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
       <c r="M17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="36" customFormat="1" ht="165" customHeight="1">
-      <c r="A18" s="33" t="s">
+    <row r="18" spans="1:13" s="34" customFormat="1" ht="165" customHeight="1">
+      <c r="A18" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="H18" s="33" t="s">
+      <c r="H18" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="33" t="s">
+      <c r="I18" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="J18" s="33" t="s">
+      <c r="J18" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="K18" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="L18" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="M18" s="35"/>
-    </row>
-    <row r="19" spans="1:13" s="15" customFormat="1">
-      <c r="D19" s="16"/>
-      <c r="M19" s="17"/>
-    </row>
-    <row r="20" spans="1:13" s="15" customFormat="1">
-      <c r="D20" s="16"/>
-      <c r="M20" s="17"/>
+      <c r="K18" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="L18" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="M18" s="33"/>
+    </row>
+    <row r="19" spans="1:13" s="13" customFormat="1">
+      <c r="D19" s="14"/>
+      <c r="M19" s="15"/>
+    </row>
+    <row r="20" spans="1:13" s="13" customFormat="1">
+      <c r="D20" s="14"/>
+      <c r="M20" s="15"/>
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1">
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="93"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="66"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="B22" s="94"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="96"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="69"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="B23" s="94"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="96"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="69"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="B24" s="94"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="96"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="69"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="B25" s="94"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="96"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="69"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="B26" s="94"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="96"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="69"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="B27" s="97"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="99"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="72"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -3088,68 +3165,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.5" thickTop="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>

--- a/chiloPro/template-series/structure-books.xlsx
+++ b/chiloPro/template-series/structure-books.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21795" windowHeight="7965" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21795" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="series-information" sheetId="37" r:id="rId1"/>
@@ -35,10 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
   <si>
-    <t>cover</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>main</t>
   </si>
   <si>
@@ -270,16 +266,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>改訂版発行日</t>
-    <rPh sb="0" eb="3">
-      <t>カイテイバン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ハッコウビ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>vol-1</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -316,16 +302,6 @@
     <t>CHiLO Bookのシリーズ名</t>
     <rPh sb="15" eb="16">
       <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>初版発行日</t>
-    <rPh sb="0" eb="2">
-      <t>ショハン</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ハッコウビ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -580,25 +556,6 @@
     </rPh>
     <rPh sb="35" eb="37">
       <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>CHiLO Bookのタイトル
-────────────
-実際の書先タイトルは、
-「series-name 第n章 book-title」
-となります。series-nameは、series-informationシートのseries-name項目です。
-例）はじめての情報ネットワークI 第1章インターネットの歴史とビットの復習
-この書籍タイトルは、content.opfに設定されるほか、「Copyright」ページに挿入されます。</t>
-    <rPh sb="10" eb="11">
-      <t>ホンンオ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>ショウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -905,6 +862,76 @@
   </si>
   <si>
     <t>editor</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>初版発行日(YYYY-MM-DD)</t>
+    <rPh sb="0" eb="2">
+      <t>ショハン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ハッコウビ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>改訂版発行日(YYYY-MM-DD)</t>
+    <rPh sb="0" eb="3">
+      <t>カイテイバン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ハッコウビ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nside-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cover</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CHiLO Bookのタイトル
+────────────
+実際の書籍タイトルは、
+「series-name 第n章 book-title」
+となります。series-nameは、series-informationシートのseries-name項目です。
+例）はじめての情報ネットワークI 第1章インターネットの歴史とビットの復習
+この書籍タイトルは、content.opfに設定されるほか、「Copyright」ページに挿入されます。</t>
+    <rPh sb="10" eb="11">
+      <t>ホンンオ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ショセキ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ショウ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1723,6 +1750,66 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="37" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1757,6 +1844,33 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1800,93 +1914,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="37" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -2229,7 +2256,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
@@ -2242,170 +2269,170 @@
   <sheetData>
     <row r="1" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A1" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="27">
         <v>1</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21" customHeight="1">
       <c r="A2" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="41" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="27"/>
       <c r="C4" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>49</v>
+        <v>22</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="51"/>
+        <v>23</v>
+      </c>
+      <c r="D5" s="71"/>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="51"/>
+        <v>92</v>
+      </c>
+      <c r="D6" s="71"/>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
       <c r="A7" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="51"/>
+        <v>93</v>
+      </c>
+      <c r="D7" s="71"/>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
       <c r="A8" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="52"/>
+        <v>19</v>
+      </c>
+      <c r="D8" s="72"/>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
       <c r="A9" s="41" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B9" s="28"/>
       <c r="C9" s="25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="80.099999999999994" customHeight="1">
       <c r="A10" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1">
       <c r="A11" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="35"/>
       <c r="C11" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21" customHeight="1">
-      <c r="A12" s="26" t="s">
-        <v>0</v>
+      <c r="A12" s="41" t="s">
+        <v>94</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="22"/>
     </row>
     <row r="15" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A15" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
+      <c r="A15" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="74"/>
+      <c r="C15" s="75"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="56"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="58"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="78"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="56"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="58"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="78"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="59"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="61"/>
+      <c r="A18" s="79"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="81"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -2424,7 +2451,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
   <cols>
@@ -2445,261 +2472,261 @@
     <col min="16" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="81" customFormat="1" ht="20.25" thickBot="1">
+    <row r="1" spans="1:15" s="58" customFormat="1" ht="20.25" thickBot="1">
       <c r="A1" s="44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="G1" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" s="47" t="s">
+      <c r="M1" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="47" t="s">
+    </row>
+    <row r="2" spans="1:15" s="58" customFormat="1" ht="48" customHeight="1" thickTop="1">
+      <c r="A2" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+    </row>
+    <row r="3" spans="1:15" s="58" customFormat="1" ht="48" customHeight="1">
+      <c r="A3" s="59"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+    </row>
+    <row r="4" spans="1:15" s="58" customFormat="1" ht="48" customHeight="1">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+    </row>
+    <row r="5" spans="1:15" s="58" customFormat="1" ht="253.5">
+      <c r="A5" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="K1" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="L1" s="47" t="s">
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="M1" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="N1" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="O1" s="47" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="81" customFormat="1" ht="48" customHeight="1" thickTop="1">
-      <c r="A2" s="73" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-    </row>
-    <row r="3" spans="1:15" s="81" customFormat="1" ht="48" customHeight="1">
-      <c r="A3" s="82"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-    </row>
-    <row r="4" spans="1:15" s="81" customFormat="1" ht="48" customHeight="1">
-      <c r="A4" s="85"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="79"/>
-    </row>
-    <row r="5" spans="1:15" s="81" customFormat="1" ht="253.5">
-      <c r="A5" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="48" t="s">
+    </row>
+    <row r="6" spans="1:15" s="58" customFormat="1">
+      <c r="A6" s="65"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+    </row>
+    <row r="7" spans="1:15" s="58" customFormat="1">
+      <c r="F7" s="67"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+    </row>
+    <row r="8" spans="1:15" s="58" customFormat="1">
+      <c r="A8" s="68"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+    </row>
+    <row r="9" spans="1:15" s="58" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A9" s="68"/>
+      <c r="B9" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="49" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="81" customFormat="1">
-      <c r="A6" s="88"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
-      <c r="O6" s="89"/>
-    </row>
-    <row r="7" spans="1:15" s="81" customFormat="1">
-      <c r="F7" s="90"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-    </row>
-    <row r="8" spans="1:15" s="81" customFormat="1">
-      <c r="A8" s="91"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="89"/>
-    </row>
-    <row r="9" spans="1:15" s="81" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A9" s="91"/>
-      <c r="B9" s="92" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="93"/>
-      <c r="D9" s="94"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="89"/>
-    </row>
-    <row r="10" spans="1:15" s="81" customFormat="1">
-      <c r="A10" s="91"/>
-      <c r="B10" s="96"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="98"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-    </row>
-    <row r="11" spans="1:15" s="81" customFormat="1">
-      <c r="B11" s="96"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="98"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="89"/>
-      <c r="O11" s="89"/>
-    </row>
-    <row r="12" spans="1:15" s="81" customFormat="1">
-      <c r="B12" s="96"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="98"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="89"/>
-    </row>
-    <row r="13" spans="1:15" s="81" customFormat="1">
-      <c r="B13" s="99"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="101"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="89"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="84"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+    </row>
+    <row r="10" spans="1:15" s="58" customFormat="1">
+      <c r="A10" s="68"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="87"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+    </row>
+    <row r="11" spans="1:15" s="58" customFormat="1">
+      <c r="B11" s="85"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="87"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+    </row>
+    <row r="12" spans="1:15" s="58" customFormat="1">
+      <c r="B12" s="85"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="87"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+    </row>
+    <row r="13" spans="1:15" s="58" customFormat="1">
+      <c r="B13" s="88"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="90"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
     </row>
     <row r="14" spans="1:15">
       <c r="F14" s="38"/>
@@ -2745,40 +2772,40 @@
   <sheetData>
     <row r="1" spans="1:13" customFormat="1" ht="20.25" thickBot="1">
       <c r="A1" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>5</v>
-      </c>
       <c r="K1" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M1" s="3"/>
     </row>
@@ -3021,45 +3048,45 @@
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
       <c r="M17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="34" customFormat="1" ht="165" customHeight="1">
       <c r="A18" s="31" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G18" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="H18" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I18" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" s="31" t="s">
-        <v>75</v>
-      </c>
       <c r="K18" s="31" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L18" s="31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M18" s="33"/>
     </row>
@@ -3072,48 +3099,48 @@
       <c r="M20" s="15"/>
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1">
-      <c r="B21" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="66"/>
+      <c r="B21" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="95"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="B22" s="67"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="69"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="98"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="B23" s="67"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="69"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="98"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="B24" s="67"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="69"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="98"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="B25" s="67"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="69"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="98"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="B26" s="67"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="69"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="98"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="B27" s="70"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="72"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="101"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -3166,61 +3193,61 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1">
       <c r="A1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.5" thickTop="1">
       <c r="A2" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">

--- a/chiloPro/template-series/structure-books.xlsx
+++ b/chiloPro/template-series/structure-books.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chilo-producer\chiloPro\template-series\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHiLO-Producer_pri\chiloPro\template-series\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
   <si>
     <t>main</t>
   </si>
@@ -932,6 +932,10 @@
     <rPh sb="56" eb="57">
       <t>ショウ</t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>chilo_inside_cover.png</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2397,7 +2401,9 @@
       <c r="A12" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="27" t="s">
+        <v>96</v>
+      </c>
       <c r="C12" s="25" t="s">
         <v>35</v>
       </c>
@@ -2451,7 +2457,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
   <cols>

--- a/chiloPro/template-series/structure-books.xlsx
+++ b/chiloPro/template-series/structure-books.xlsx
@@ -1138,7 +1138,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1395,17 +1395,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1751,172 +1740,187 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="37" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2317,7 +2321,7 @@
       <c r="C4" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="55" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2329,7 +2333,7 @@
       <c r="C5" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="71"/>
+      <c r="D5" s="56"/>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="26" t="s">
@@ -2339,7 +2343,7 @@
       <c r="C6" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="71"/>
+      <c r="D6" s="56"/>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
       <c r="A7" s="26" t="s">
@@ -2349,7 +2353,7 @@
       <c r="C7" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="71"/>
+      <c r="D7" s="56"/>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
       <c r="A8" s="26" t="s">
@@ -2359,7 +2363,7 @@
       <c r="C8" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="72"/>
+      <c r="D8" s="57"/>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
       <c r="A9" s="41" t="s">
@@ -2419,26 +2423,26 @@
       <c r="D13" s="22"/>
     </row>
     <row r="15" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="75"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="60"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="76"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="78"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="63"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="76"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="78"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="63"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="79"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="81"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="66"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -2457,9 +2461,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
   <cols>
@@ -2480,7 +2482,7 @@
     <col min="16" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="58" customFormat="1" ht="20.25" thickBot="1">
+    <row r="1" spans="1:15" s="49" customFormat="1" ht="20.25" thickBot="1">
       <c r="A1" s="44" t="s">
         <v>6</v>
       </c>
@@ -2527,60 +2529,60 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="58" customFormat="1" ht="48" customHeight="1" thickTop="1">
-      <c r="A2" s="50" t="s">
+    <row r="2" spans="1:15" s="49" customFormat="1" ht="48" customHeight="1" thickTop="1">
+      <c r="A2" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-    </row>
-    <row r="3" spans="1:15" s="58" customFormat="1" ht="48" customHeight="1">
-      <c r="A3" s="59"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-    </row>
-    <row r="4" spans="1:15" s="58" customFormat="1" ht="48" customHeight="1">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-    </row>
-    <row r="5" spans="1:15" s="58" customFormat="1" ht="253.5">
+      <c r="B2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+    </row>
+    <row r="3" spans="1:15" s="49" customFormat="1" ht="48" customHeight="1">
+      <c r="A3" s="95"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+    </row>
+    <row r="4" spans="1:15" s="49" customFormat="1" ht="48" customHeight="1">
+      <c r="A4" s="98"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+    </row>
+    <row r="5" spans="1:15" s="49" customFormat="1" ht="253.5">
       <c r="A5" s="48" t="s">
         <v>56</v>
       </c>
@@ -2599,142 +2601,142 @@
       <c r="F5" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="91" t="s">
+      <c r="G5" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="49" t="s">
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="86" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="58" customFormat="1">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-    </row>
-    <row r="7" spans="1:15" s="58" customFormat="1">
-      <c r="F7" s="67"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-    </row>
-    <row r="8" spans="1:15" s="58" customFormat="1">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-    </row>
-    <row r="9" spans="1:15" s="58" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A9" s="68"/>
-      <c r="B9" s="82" t="s">
+    <row r="6" spans="1:15" s="49" customFormat="1">
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+    </row>
+    <row r="7" spans="1:15" s="49" customFormat="1">
+      <c r="F7" s="52"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+    </row>
+    <row r="8" spans="1:15" s="49" customFormat="1">
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+    </row>
+    <row r="9" spans="1:15" s="49" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A9" s="53"/>
+      <c r="B9" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="84"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-    </row>
-    <row r="10" spans="1:15" s="58" customFormat="1">
-      <c r="A10" s="68"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="87"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-    </row>
-    <row r="11" spans="1:15" s="58" customFormat="1">
-      <c r="B11" s="85"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="87"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-    </row>
-    <row r="12" spans="1:15" s="58" customFormat="1">
-      <c r="B12" s="85"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="87"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-    </row>
-    <row r="13" spans="1:15" s="58" customFormat="1">
-      <c r="B13" s="88"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="90"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="69"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+    </row>
+    <row r="10" spans="1:15" s="49" customFormat="1">
+      <c r="A10" s="53"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="72"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+    </row>
+    <row r="11" spans="1:15" s="49" customFormat="1">
+      <c r="B11" s="70"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="72"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+    </row>
+    <row r="12" spans="1:15" s="49" customFormat="1">
+      <c r="B12" s="70"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="72"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+    </row>
+    <row r="13" spans="1:15" s="49" customFormat="1">
+      <c r="B13" s="73"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="75"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
     </row>
     <row r="14" spans="1:15">
       <c r="F14" s="38"/>
@@ -3107,48 +3109,48 @@
       <c r="M20" s="15"/>
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1">
-      <c r="B21" s="93" t="s">
+      <c r="B21" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="95"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="78"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="B22" s="96"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="98"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="81"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="B23" s="96"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="98"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="81"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="B24" s="96"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="98"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="81"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="B25" s="96"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="98"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="81"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="B26" s="96"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="98"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="81"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="B27" s="99"/>
-      <c r="C27" s="100"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="101"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="84"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/chiloPro/template-series/structure-books.xlsx
+++ b/chiloPro/template-series/structure-books.xlsx
@@ -468,17 +468,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>・ シリーズに関する情報を記載するシートです。
-・ 色のついているセルは必須項目です。
-・ 変更してはいけないセルに保護がかかっています。シートの保護解除のパスワードはつけていません。</t>
-  </si>
-  <si>
-    <t>・ シリーズの各ブックに関する情報を記載するシートです。
-・ 色のついているセルは必須項目です。
-・ 制作するブックの冊数分だけ、行を挿入して必要事項を記載ください。
-・ 変更してはいけないセルに保護がかかっています。シートの保護解除のパスワードはつけていません。</t>
-  </si>
-  <si>
     <t>コミュニティの表示
 ──────────
 ページのコミュニティリンクボタンの表示非表示を指定できます。リンクボタンの表示する場合は、「TRUE」とします。book-listシートのcommunity-url項目を記載した場合のみ有効です。</t>
@@ -522,15 +511,6 @@
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t xml:space="preserve">・ ブックの解説ページと確認テストページに関するシートです。
-・ 色のついているセルは必須項目です。
-・ page-typeを指定して、行を追加するとCHiLO Bookのページが追加されます。
-・ ブックの数だけ書籍構成シートをコピーして、1冊のブックにつき1シート作成します。
-・ シート名は、book-listの「vol」の列と一致させてください。
-・変更してはいけないセルに保護がかかっています。シートの保護解除のパスワードはつけていません。
-</t>
   </si>
   <si>
     <t>トピックタイトル
@@ -936,6 +916,25 @@
   </si>
   <si>
     <t>chilo_inside_cover.png</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・ シリーズに関する情報を記載するシートです。
+・ 色のついているセルは必須項目です。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・ シリーズの各ブックに関する情報を記載するシートです。
+・ 色のついているセルは必須項目です。
+・ 制作するブックの冊数分だけ、行を挿入して必要事項を記載ください。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・ ブックの解説ページと確認テストページに関するシートです。
+・ 色のついているセルは必須項目です。
+・ page-typeを指定して、行を追加するとCHiLO Bookのページが追加されます。
+・ ブックの数だけ書籍構成シートをコピーして、1冊のブックにつき1シート作成します。
+・ シート名は、book-listの「vol」の列と一致させてください。</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1758,6 +1757,69 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="37" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1797,29 +1859,8 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1857,71 +1898,29 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="37" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -2262,7 +2261,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2286,7 +2285,7 @@
         <v>55</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21" customHeight="1">
@@ -2298,12 +2297,12 @@
         <v>45</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="41" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="25" t="s">
@@ -2321,7 +2320,7 @@
       <c r="C4" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="71" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2333,7 +2332,7 @@
       <c r="C5" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="56"/>
+      <c r="D5" s="72"/>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="26" t="s">
@@ -2341,9 +2340,9 @@
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="56"/>
+        <v>89</v>
+      </c>
+      <c r="D6" s="72"/>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
       <c r="A7" s="26" t="s">
@@ -2351,9 +2350,9 @@
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="56"/>
+        <v>90</v>
+      </c>
+      <c r="D7" s="72"/>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
       <c r="A8" s="26" t="s">
@@ -2363,7 +2362,7 @@
       <c r="C8" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="57"/>
+      <c r="D8" s="73"/>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
       <c r="A9" s="41" t="s">
@@ -2403,10 +2402,10 @@
     </row>
     <row r="12" spans="1:4" ht="21" customHeight="1">
       <c r="A12" s="41" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>35</v>
@@ -2423,32 +2422,26 @@
       <c r="D13" s="22"/>
     </row>
     <row r="15" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A15" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="60"/>
+      <c r="A15" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="75"/>
+      <c r="C15" s="76"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="61"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="63"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="79"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="61"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="63"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="64"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="66"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="82"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="2">
     <mergeCell ref="D4:D8"/>
-    <mergeCell ref="A15:C18"/>
+    <mergeCell ref="A15:C17"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2459,7 +2452,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2493,7 +2486,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E1" s="45" t="s">
         <v>40</v>
@@ -2502,92 +2495,92 @@
         <v>13</v>
       </c>
       <c r="G1" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="L1" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="O1" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="K1" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="L1" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="M1" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="N1" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="O1" s="47" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="49" customFormat="1" ht="48" customHeight="1" thickTop="1">
-      <c r="A2" s="87" t="s">
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" ht="48" customHeight="1" thickTop="1">
+      <c r="A2" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-    </row>
-    <row r="3" spans="1:15" s="49" customFormat="1" ht="48" customHeight="1">
-      <c r="A3" s="95"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-    </row>
-    <row r="4" spans="1:15" s="49" customFormat="1" ht="48" customHeight="1">
-      <c r="A4" s="98"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" ht="48" customHeight="1">
+      <c r="A3" s="63"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" ht="48" customHeight="1">
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
     </row>
     <row r="5" spans="1:15" s="49" customFormat="1" ht="253.5">
       <c r="A5" s="48" t="s">
         <v>56</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C5" s="48" t="s">
         <v>59</v>
@@ -2601,18 +2594,18 @@
       <c r="F5" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="86" t="s">
-        <v>83</v>
+      <c r="G5" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="55" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="49" customFormat="1">
@@ -2661,11 +2654,11 @@
     </row>
     <row r="9" spans="1:15" s="49" customFormat="1" ht="14.25" customHeight="1">
       <c r="A9" s="53"/>
-      <c r="B9" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="69"/>
+      <c r="B9" s="83" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="94"/>
+      <c r="D9" s="95"/>
       <c r="F9" s="54"/>
       <c r="G9" s="51"/>
       <c r="H9" s="51"/>
@@ -2679,9 +2672,9 @@
     </row>
     <row r="10" spans="1:15" s="49" customFormat="1">
       <c r="A10" s="53"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="72"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="98"/>
       <c r="F10" s="54"/>
       <c r="G10" s="51"/>
       <c r="H10" s="51"/>
@@ -2694,9 +2687,9 @@
       <c r="O10" s="51"/>
     </row>
     <row r="11" spans="1:15" s="49" customFormat="1">
-      <c r="B11" s="70"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="72"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="98"/>
       <c r="F11" s="54"/>
       <c r="G11" s="51"/>
       <c r="H11" s="51"/>
@@ -2709,9 +2702,9 @@
       <c r="O11" s="51"/>
     </row>
     <row r="12" spans="1:15" s="49" customFormat="1">
-      <c r="B12" s="70"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="72"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="101"/>
       <c r="F12" s="54"/>
       <c r="G12" s="51"/>
       <c r="H12" s="51"/>
@@ -2723,32 +2716,14 @@
       <c r="N12" s="51"/>
       <c r="O12" s="51"/>
     </row>
-    <row r="13" spans="1:15" s="49" customFormat="1">
-      <c r="B13" s="73"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="75"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="F14" s="38"/>
+    <row r="13" spans="1:15">
+      <c r="F13" s="38"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <protectedRanges>
-    <protectedRange sqref="A2:XFD4" name="範囲1"/>
-  </protectedRanges>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="2">
-    <mergeCell ref="B9:D13"/>
     <mergeCell ref="G5:N5"/>
+    <mergeCell ref="B9:D12"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2759,7 +2734,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2812,10 +2787,10 @@
         <v>4</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M1" s="3"/>
     </row>
@@ -3069,19 +3044,19 @@
         <v>60</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D18" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="31" t="s">
         <v>67</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>69</v>
       </c>
       <c r="H18" s="31" t="s">
         <v>61</v>
@@ -3090,13 +3065,13 @@
         <v>38</v>
       </c>
       <c r="J18" s="31" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K18" s="31" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L18" s="31" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M18" s="33"/>
     </row>
@@ -3109,53 +3084,47 @@
       <c r="M20" s="15"/>
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1">
-      <c r="B21" s="76" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="78"/>
+      <c r="B21" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="87"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="B22" s="79"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="81"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="90"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="B23" s="79"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="81"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="90"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="B24" s="79"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="81"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="90"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="B25" s="79"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="81"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="90"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="B26" s="79"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="81"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="B27" s="82"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="84"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="93"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="1">
-    <mergeCell ref="B21:E27"/>
+    <mergeCell ref="B21:E26"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/chiloPro/template-series/structure-books.xlsx
+++ b/chiloPro/template-series/structure-books.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHiLO-Producer_pri\chiloPro\template-series\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chilo-producer\chiloPro\template-series\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -390,12 +390,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>CHiLO BookのユニークID。
-──────────────────
-content.opfに設定されます。</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>各CHiLO Bookの概要
 ────────────
 「はじめにお読みください」セクションの「ブック概要」に挿入されます。</t>
@@ -935,6 +929,12 @@
 ・ page-typeを指定して、行を追加するとCHiLO Bookのページが追加されます。
 ・ ブックの数だけ書籍構成シートをコピーして、1冊のブックにつき1シート作成します。
 ・ シート名は、book-listの「vol」の列と一致させてください。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CHiLO BookのUUID。
+──────────────────
+content.opfに設定されます。</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1856,11 +1856,35 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1897,30 +1921,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -2285,7 +2285,7 @@
         <v>55</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21" customHeight="1">
@@ -2297,19 +2297,19 @@
         <v>45</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
@@ -2340,7 +2340,7 @@
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="72"/>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="72"/>
     </row>
@@ -2402,10 +2402,10 @@
     </row>
     <row r="12" spans="1:4" ht="21" customHeight="1">
       <c r="A12" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>35</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="15" spans="1:4" ht="13.5" customHeight="1">
       <c r="A15" s="74" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" s="75"/>
       <c r="C15" s="76"/>
@@ -2486,7 +2486,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E1" s="45" t="s">
         <v>40</v>
@@ -2495,31 +2495,31 @@
         <v>13</v>
       </c>
       <c r="G1" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="J1" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="K1" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="L1" s="47" t="s">
+      <c r="N1" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="M1" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="N1" s="47" t="s">
+      <c r="O1" s="47" t="s">
         <v>77</v>
-      </c>
-      <c r="O1" s="47" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="4" customFormat="1" ht="48" customHeight="1" thickTop="1">
@@ -2580,32 +2580,32 @@
         <v>56</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="48" t="s">
         <v>39</v>
       </c>
       <c r="E5" s="48" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="F5" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="55" t="s">
         <v>79</v>
-      </c>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="55" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="49" customFormat="1">
@@ -2654,11 +2654,11 @@
     </row>
     <row r="9" spans="1:15" s="49" customFormat="1" ht="14.25" customHeight="1">
       <c r="A9" s="53"/>
-      <c r="B9" s="83" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="95"/>
+      <c r="B9" s="84" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="86"/>
       <c r="F9" s="54"/>
       <c r="G9" s="51"/>
       <c r="H9" s="51"/>
@@ -2672,9 +2672,9 @@
     </row>
     <row r="10" spans="1:15" s="49" customFormat="1">
       <c r="A10" s="53"/>
-      <c r="B10" s="96"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="98"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="89"/>
       <c r="F10" s="54"/>
       <c r="G10" s="51"/>
       <c r="H10" s="51"/>
@@ -2687,9 +2687,9 @@
       <c r="O10" s="51"/>
     </row>
     <row r="11" spans="1:15" s="49" customFormat="1">
-      <c r="B11" s="96"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="98"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="89"/>
       <c r="F11" s="54"/>
       <c r="G11" s="51"/>
       <c r="H11" s="51"/>
@@ -2702,9 +2702,9 @@
       <c r="O11" s="51"/>
     </row>
     <row r="12" spans="1:15" s="49" customFormat="1">
-      <c r="B12" s="99"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="101"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="92"/>
       <c r="F12" s="54"/>
       <c r="G12" s="51"/>
       <c r="H12" s="51"/>
@@ -2787,10 +2787,10 @@
         <v>4</v>
       </c>
       <c r="K1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="M1" s="3"/>
     </row>
@@ -3038,40 +3038,40 @@
     </row>
     <row r="18" spans="1:13" s="34" customFormat="1" ht="165" customHeight="1">
       <c r="A18" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="31" t="s">
         <v>60</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="31" t="s">
-        <v>61</v>
       </c>
       <c r="I18" s="31" t="s">
         <v>38</v>
       </c>
       <c r="J18" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K18" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="L18" s="31" t="s">
         <v>83</v>
-      </c>
-      <c r="L18" s="31" t="s">
-        <v>84</v>
       </c>
       <c r="M18" s="33"/>
     </row>
@@ -3084,42 +3084,42 @@
       <c r="M20" s="15"/>
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1">
-      <c r="B21" s="85" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="87"/>
+      <c r="B21" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="95"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="B22" s="88"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="90"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="98"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="B23" s="88"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="90"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="98"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="B24" s="88"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="90"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="98"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="B25" s="88"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="90"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="98"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="B26" s="91"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="93"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="101"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/chiloPro/template-series/structure-books.xlsx
+++ b/chiloPro/template-series/structure-books.xlsx
@@ -390,6 +390,12 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
+    <t>CHiLO BookのユニークID。
+──────────────────
+content.opfに設定されます。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
     <t>各CHiLO Bookの概要
 ────────────
 「はじめにお読みください」セクションの「ブック概要」に挿入されます。</t>
@@ -677,79 +683,6 @@
       <t>バアイ</t>
     </rPh>
     <rPh sb="115" eb="117">
-      <t>クウハク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>章ごとに変更する内表紙画像
-────────────
-[series-information]の内表紙画像を章ごとに変更したい箇所が荒れれば、画像を vol-n/imagesに保存し、ファイル名をここに記入します。
-（[series-information]と同じ内表紙を使いたい場合は、空白のままにしてください）</t>
-    <rPh sb="0" eb="1">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ウチ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウシ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>ウチ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ヒョウシ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>カショ</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="96" eb="97">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>キニュウ</t>
-    </rPh>
-    <rPh sb="130" eb="131">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="132" eb="133">
-      <t>ウチ</t>
-    </rPh>
-    <rPh sb="133" eb="135">
-      <t>ヒョウシ</t>
-    </rPh>
-    <rPh sb="136" eb="137">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="140" eb="142">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="144" eb="146">
       <t>クウハク</t>
     </rPh>
     <phoneticPr fontId="4"/>
@@ -932,9 +865,73 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>CHiLO BookのUUID。
-──────────────────
-content.opfに設定されます。</t>
+    <t>章ごとに変更する内表紙画像
+────────────
+[series-information]の内表紙画像を章ごとに変更したい箇所があれば、画像を vol-n/imagesに保存し、ファイル名をここに記入します。
+（[series-information]と同じ内表紙を使いたい場合は、空白のままにしてください）</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ウチ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒョウシ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>ウチ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>ヒョウシ</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>クウハク</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2285,7 +2282,7 @@
         <v>55</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21" customHeight="1">
@@ -2297,19 +2294,19 @@
         <v>45</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
@@ -2486,7 +2483,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E1" s="45" t="s">
         <v>40</v>
@@ -2498,10 +2495,10 @@
         <v>84</v>
       </c>
       <c r="H1" s="47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I1" s="47" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J1" s="47" t="s">
         <v>86</v>
@@ -2510,16 +2507,16 @@
         <v>87</v>
       </c>
       <c r="L1" s="47" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M1" s="47" t="s">
         <v>85</v>
       </c>
       <c r="N1" s="47" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O1" s="47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="4" customFormat="1" ht="48" customHeight="1" thickTop="1">
@@ -2583,19 +2580,19 @@
         <v>91</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D5" s="48" t="s">
         <v>39</v>
       </c>
       <c r="E5" s="48" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="F5" s="48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G5" s="83" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H5" s="83"/>
       <c r="I5" s="83"/>
@@ -2605,7 +2602,7 @@
       <c r="M5" s="83"/>
       <c r="N5" s="83"/>
       <c r="O5" s="55" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="49" customFormat="1">
@@ -3038,34 +3035,34 @@
     </row>
     <row r="18" spans="1:13" s="34" customFormat="1" ht="165" customHeight="1">
       <c r="A18" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="31" t="s">
         <v>61</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" s="31" t="s">
-        <v>60</v>
       </c>
       <c r="I18" s="31" t="s">
         <v>38</v>
       </c>
       <c r="J18" s="31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K18" s="31" t="s">
         <v>82</v>

--- a/chiloPro/template-series/structure-books.xlsx
+++ b/chiloPro/template-series/structure-books.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chilo-producer\chiloPro\template-series\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHiLO-Producer_pri\chiloPro\template-series\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
   <si>
     <t>main</t>
   </si>
@@ -120,13 +120,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>シリーズ紹介ページのURL</t>
-    <rPh sb="4" eb="6">
-      <t>ショウカイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>発行者名</t>
     <rPh sb="3" eb="4">
       <t>メイ</t>
@@ -188,10 +181,6 @@
   </si>
   <si>
     <t>series-introduction</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>series-url</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -308,19 +297,6 @@
   <si>
     <t>* 「はじめにお読みください」セクションの「シリーズの紹介」ページに挿入されます。</t>
     <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>* 「シリーズの紹介」ページのシリーズの紹介文の下に挿入されます。</t>
-    <rPh sb="20" eb="22">
-      <t>ショウカイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>シタ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>* 各セクションの内表紙画像として使用されます。</t>
@@ -1571,7 +1547,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1689,10 +1665,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="37" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2258,7 +2230,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2273,172 +2245,160 @@
   <sheetData>
     <row r="1" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A1" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="27">
         <v>1</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21" customHeight="1">
       <c r="A2" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
-      <c r="A3" s="41" t="s">
-        <v>75</v>
+      <c r="A3" s="40" t="s">
+        <v>72</v>
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="27"/>
       <c r="C4" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="71" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="72"/>
+        <v>22</v>
+      </c>
+      <c r="D5" s="71"/>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="39"/>
+        <v>28</v>
+      </c>
+      <c r="B6" s="38"/>
       <c r="C6" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="72"/>
+        <v>85</v>
+      </c>
+      <c r="D6" s="71"/>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
       <c r="A7" s="26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="72"/>
+        <v>86</v>
+      </c>
+      <c r="D7" s="71"/>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
       <c r="A8" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="73"/>
+      <c r="D8" s="72"/>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
-      <c r="A9" s="41" t="s">
-        <v>57</v>
+      <c r="A9" s="40" t="s">
+        <v>54</v>
       </c>
       <c r="B9" s="28"/>
       <c r="C9" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="80.099999999999994" customHeight="1">
       <c r="A10" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="25" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="21" customHeight="1">
-      <c r="A12" s="41" t="s">
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="14" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A14" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-    </row>
-    <row r="15" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A15" s="74" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="76"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="75"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="76"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="78"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="77"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="79"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="80"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="82"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D4:D8"/>
-    <mergeCell ref="A15:C17"/>
+    <mergeCell ref="A14:C16"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2461,260 +2421,260 @@
     <col min="4" max="4" width="32.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="43.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="37.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.375" style="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="43" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.75" style="43" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="43" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.625" style="43" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.5" style="43" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.625" style="43" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="42" style="43" customWidth="1"/>
+    <col min="7" max="7" width="8.375" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="42" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.75" style="42" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="42" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.625" style="42" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.5" style="42" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.625" style="42" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="42" style="42" customWidth="1"/>
     <col min="16" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="49" customFormat="1" ht="20.25" thickBot="1">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:15" s="48" customFormat="1" ht="20.25" thickBot="1">
+      <c r="A1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="J1" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" s="46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" ht="48" customHeight="1" thickTop="1">
+      <c r="A2" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="J1" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="K1" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="L1" s="47" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" ht="48" customHeight="1">
+      <c r="A3" s="62"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" ht="48" customHeight="1">
+      <c r="A4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+    </row>
+    <row r="5" spans="1:15" s="48" customFormat="1" ht="253.5">
+      <c r="A5" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="M1" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="N1" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="O1" s="47" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" ht="48" customHeight="1" thickTop="1">
-      <c r="A2" s="70" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" ht="48" customHeight="1">
-      <c r="A3" s="63"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-    </row>
-    <row r="4" spans="1:15" s="4" customFormat="1" ht="48" customHeight="1">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-    </row>
-    <row r="5" spans="1:15" s="49" customFormat="1" ht="253.5">
-      <c r="A5" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="48" t="s">
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="48" customFormat="1">
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+    </row>
+    <row r="7" spans="1:15" s="48" customFormat="1">
+      <c r="F7" s="51"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+    </row>
+    <row r="8" spans="1:15" s="48" customFormat="1">
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+    </row>
+    <row r="9" spans="1:15" s="48" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A9" s="52"/>
+      <c r="B9" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="83" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="55" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="49" customFormat="1">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-    </row>
-    <row r="7" spans="1:15" s="49" customFormat="1">
-      <c r="F7" s="52"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-    </row>
-    <row r="8" spans="1:15" s="49" customFormat="1">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-    </row>
-    <row r="9" spans="1:15" s="49" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A9" s="53"/>
-      <c r="B9" s="84" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="86"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-    </row>
-    <row r="10" spans="1:15" s="49" customFormat="1">
-      <c r="A10" s="53"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="89"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-    </row>
-    <row r="11" spans="1:15" s="49" customFormat="1">
-      <c r="B11" s="87"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="89"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-    </row>
-    <row r="12" spans="1:15" s="49" customFormat="1">
-      <c r="B12" s="90"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="92"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="85"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+    </row>
+    <row r="10" spans="1:15" s="48" customFormat="1">
+      <c r="A10" s="52"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="88"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+    </row>
+    <row r="11" spans="1:15" s="48" customFormat="1">
+      <c r="B11" s="86"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="88"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+    </row>
+    <row r="12" spans="1:15" s="48" customFormat="1">
+      <c r="B12" s="89"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="91"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="F13" s="38"/>
+      <c r="F13" s="37"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -2757,13 +2717,13 @@
         <v>7</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>43</v>
+        <v>51</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>41</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>0</v>
@@ -2778,24 +2738,24 @@
         <v>3</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="20.25" thickTop="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="8"/>
-      <c r="D2" s="36"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -2807,10 +2767,10 @@
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="36"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -2822,10 +2782,10 @@
       <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="36"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -2837,10 +2797,10 @@
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="8"/>
-      <c r="D5" s="36"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -2852,10 +2812,10 @@
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="36"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -2867,10 +2827,10 @@
       <c r="M6" s="7"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="36"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -2882,10 +2842,10 @@
       <c r="M7" s="7"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="36"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -2897,10 +2857,10 @@
       <c r="M8" s="7"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="36"/>
+      <c r="D9" s="35"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -2912,10 +2872,10 @@
       <c r="M9" s="7"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="36"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -2927,10 +2887,10 @@
       <c r="M10" s="7"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="36"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -2942,10 +2902,10 @@
       <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="36"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -2957,10 +2917,10 @@
       <c r="M12" s="7"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="36"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -2972,10 +2932,10 @@
       <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="36"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -2987,10 +2947,10 @@
       <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="36"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -3002,10 +2962,10 @@
       <c r="M15" s="7"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="36"/>
+      <c r="D16" s="35"/>
       <c r="E16" s="9"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -3030,45 +2990,45 @@
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
       <c r="M17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="34" customFormat="1" ht="165" customHeight="1">
       <c r="A18" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>65</v>
-      </c>
       <c r="E18" s="31" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F18" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="I18" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="31" t="s">
-        <v>69</v>
-      </c>
       <c r="K18" s="31" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L18" s="31" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M18" s="33"/>
     </row>
@@ -3081,42 +3041,42 @@
       <c r="M20" s="15"/>
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1">
-      <c r="B21" s="93" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="95"/>
+      <c r="B21" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="94"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="B22" s="96"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="98"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="97"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="B23" s="96"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="98"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="97"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="B24" s="96"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="98"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="97"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="B25" s="96"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="98"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="97"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="B26" s="99"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="101"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="100"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -3182,8 +3142,8 @@
       <c r="A2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="37" t="s">
-        <v>36</v>
+      <c r="B2" s="36" t="s">
+        <v>34</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -3191,7 +3151,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
